--- a/data/hotels_by_city/Dallas/Dallas_shard_56.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_56.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="559">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>CORRINE S</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>freykr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r564737147-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Stayed here for business for a few days. I liked being able to get fresh groceries from nearby store and cook my own meals, saved money and ate healthy. This property is not near any attractions or anything of interest, it worked for me for where I needed to go in this general DFW area and the cost was reasonable. The staff was friendly and helpful. The rooms were clean and bed comfortable. Behind the hotel is a park with a short walking trail and pond, it was nice to drink a cup of coffee in the lounge area then walk a bit in the nice weather in the evening in the park.More</t>
   </si>
   <si>
+    <t>Les013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r562096185-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>I checked into the hotel at 9:30pm. I thought the hotel was great, the location was wonderful and the room perfect. Ordinarily I would be leaving one of the best reviews, but I won’t. I found out today, that without my permission, they used a debit card I paid with for my incidental charge. I never gave them permission to do this, and I’ve never had a hotel do this. The room had been paid for and there was no need to use that debit card. Now I have overdraft fees and they offered no solutions on their end. I feel I’m owed at least a free night, because they committed fraud by using a card for something, without my permission. Now I’m worried what else they may due with my money and debit card without asking. I will just go to the Irving location from now on. Avoid these guys at all cost. More</t>
   </si>
   <si>
+    <t>wxman393</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r532854964-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t xml:space="preserve">Here for business but didn’t want to pay thousands of dollars to stay downtown. I forgot how many amenities that Candlewood provides, from the free parking to the free laundry. Having a full kitchen is excellent too!The fitness center has two treadmills, an elliptical, a recumbent bike, free weights and a Matrix weight station. Pretty good for this size property.The Candlewood Cupboard is convenient for any necessities you might need. Easy on and off to the interstate.Front desk girls are incredibly friendly! </t>
   </si>
   <si>
+    <t>teamHNH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r509755946-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>We came for a weekend with our two dogs and we're able to check in early on a Friday afternoon. The room was clean and spacious. Each room is a suite so had full refrigerator microwave and stovetop. The bed was comfy and the bathroom  was  big.  Plently of space for two adults and two dogs. The area is nice and quiet for walking the dogs at any hour. I felt safe in the early mornings and at night as well. The desk staff was very friendly and courteous. The location was is about 6 miles from the stockyards and 6 mile  from downtown. A lyft ride was around 6-13 dollars. Would definitely stay  again and recommend. More</t>
   </si>
   <si>
+    <t>Bennie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r473946275-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>My stay at this hotel was not good. The hallways smelled like smoke, the telephones inside the rooms did not work, the hallways and room needed updating, housekeeping did not exist while we were there. I thought the hotel was a nonsmoking hotel but the person at the front desk said the floor we were on was for smoking. The online reservation or the check in person said nothing about this, I only found out about it when I checked out.  The only good thing is the bed was very comfortable.More</t>
   </si>
   <si>
+    <t>Jamie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r471176589-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>We are staying in one of the King suites with the separate bedroom and love the accommodations.   Plenty of drawer space, big bathroom, shower good, nice thick towels,  like the bar in the kitchen area that gives me added counter space. The front desk has never failed to greet us coming and going, check in was a breeze, even got a call after we moved in to see if we need ANYTHING.  The two burner cook top not very big but adequate for the two of us and love the stainless steel cookware.  Would definitely recommend this hotel to friends and family.More</t>
   </si>
   <si>
+    <t>Jed10005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r448095301-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -352,6 +376,9 @@
   </si>
   <si>
     <t>The majority of the staff members were helpful, but the person who checked me out was completely apathetic and didn't thank me for staying or offer any appreciation for tolerating the condition of the property.  This hotel needs some attention to detail.  My room was dusty and the carpet was worn out.  They are in the middle of repairing some rooms from water damage and there is debris and Sheetrock dust in the hallway.  No effort at all to clean it up between working times.  The workout room has a lot of equipment, but the pantry is sparsely stocked.  The ceiling is very thin and you can hear every footstep in the room above you, so take a room on the top floor.  There is a lot of competition in the immediate area, so it would seem that more effort would be made to make the guests more comfortable.More</t>
+  </si>
+  <si>
+    <t>Matt M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r418047904-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -381,6 +408,9 @@
    The room was nice, roomy, and had everything I needed for a very comfortable 2 night stay.  The only issue at all was that I couldn't get the bedroom tv to work.  In this instance it wasn't a big deal since all I wanted to do was sleep and then head back to the hospital to be with my daughter and granddaughter.  The living room...I got the news while I was in Kansas that my daughter was in labor with her first child.  I drove to Ft Worth as quickly as possible and needed to find a hotel where I could stay for a couple nights.     I arrived at 6am at the Candlewood Suites.  The front desk wasn't open yet so I started to make a reservation at a computer terminal in the lobby.  In the middle of making my reservation I heard someone opening the front desk.  I asked the gal if she could help me or if she wanted me to just finish up using the computer.  She very graciously offered to help me.   While making my reservation for me, she was also very cognizant of other patrons coming and going and made sure to speak to all of them.  She got me set up in a nice suite for 2 nights and didn't make me wait until noon to check in which was a HUGE relief as I had been awake for about 30 straight hours.   The room was nice, roomy, and had everything I needed for a very comfortable 2 night stay.  The only issue at all was that I couldn't get the bedroom tv to work.  In this instance it wasn't a big deal since all I wanted to do was sleep and then head back to the hospital to be with my daughter and granddaughter.  The living room tv worked just fine.  The bathroom was spacious and very clean.  I was pleasantly surprised since the cost of the suite was very reasonable.    Since the Candlewood was near Joe's Pizza and Pasta and since they took great care of me, I will definitely be staying there again when I return to Ft Worth.More</t>
   </si>
   <si>
+    <t>adebayo122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r417587912-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -405,6 +435,9 @@
     <t>These guys are horrible people, they screwed up the first day, two couples had to stay in the same room with kids. We had to sleep on the floor.The lady promised they will have it fixed the next day.On Saturday, September  3, 2016,we were at a wedding party around 11pm when the hotel called  and told us they made another mistake and oversold rooms so we will have to pack our bags and travel 10miles to another hotel.It is one of the most horrible things that ever happened to us,the staffers were extremely rude especially the Manager - I will never ever recommend him for a job after he loses this job. Very bad customer service and we are still dragging our refund with them for the two extra nights they charged. Save yourself headache and book elsewhere.More</t>
   </si>
   <si>
+    <t>ArmyNomad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r410346902-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -432,6 +465,9 @@
     <t>Nope. Run. I booked based on the positive reviews on this site - which leads me to think they were paid or patronized. The area is sketchy, the rooms/hallways/cupboard are outdated and dirty. My A/C blew out nasty smoke filled air all night, so I had to turn it off and sleep in the heat. The parking lot backs up to what a cashier down the street referred to as "meth lab central." Entire hallway stunk of new and old smoke. I left at 630 am and moved across town.I was told my points would be returned and they weren't. Single female travelers, beware.More</t>
   </si>
   <si>
+    <t>cheadler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r381681186-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -453,6 +489,9 @@
     <t>This is an extended stay type of hotel close to 820 Freeway, but far enough away so it’s quiet. An Outback restaurant and an Ihop are next door. They offered a lot of amenities free with the room not normally given. They had several outdoor BBQ pits connected to propane tanks you could use. Several people were BBQ’ing every evening making it smell great. The rooms offered a two burner electric stove but frying foods in a small room makes them smelly so the BBQ pits were a good idea. The laundry room was free washers and dryers; they worked very well. The gym was small but it had mirrors on three walls to make it appear larger.More</t>
   </si>
   <si>
+    <t>blake3305</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r373137467-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -471,6 +510,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Thomas E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r366944831-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -492,6 +534,9 @@
     <t>We have stayed at this location off and on from November 2015 to April 2016 long term stays.  Our family members have stayed here as well!  If you are looking for a long stay hotel that will accommodate all your needs and work with you to meet your comfort level this Candlewood location will truly go above and beyond to be there for their guests.  The GM Martavious is a great leader of his staff, we received especially great care from Blake who we recommended be on the fast track for management and Carrieann who has become a part of our family.  Our family was in crisis during our stay and this team made us feel welcome and cared for during our times of need.  Truly an amazing hotel!  Corporations - this is awesome for your employees, excellent location N. Fort Worth with all the amenities and venues for your convenience.More</t>
   </si>
   <si>
+    <t>Yorkie1948</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r356194854-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -510,6 +555,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Al M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r346436702-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -528,6 +576,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Rocky J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r333432768-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -555,6 +606,9 @@
     <t>Got into town late on business.  Since it's going to be an early morning, I wanted to lean towards the more frugal side.  No sense in spending too much for a room I will only use for 6 or 7 hours.  The last few Candlewood properties I have stayed in have really upped the bar on what I always perceived as lower end, no frills.  I thought I would give this property a chance.  Doors are locked to get into the "lobby". All windows in the front entrance are shut tight with the roll down aluminum partitions.  At this pony in beginning to question my decision to stay here.  What do they know that I don't?  Why the high security?  After I finally ring the desk clerk on the phone and tell her I need a room (I was going to book on my IHG app before I got there, but I was driving) she finally comes and opens the holding cell door and asks if I have a credit card and drivers license.  No welcome, no hello, no pleasantries typically extended to your paying customers.  Mind you, I was in a button up polo and nice jeans, and even after a 7 hour drive still was presentable.  She proceeded to take my card and ID and go back into the saferoom that is supposed to be the front desk and never said a word.  5 minutes later I call...Got into town late on business.  Since it's going to be an early morning, I wanted to lean towards the more frugal side.  No sense in spending too much for a room I will only use for 6 or 7 hours.  The last few Candlewood properties I have stayed in have really upped the bar on what I always perceived as lower end, no frills.  I thought I would give this property a chance.  Doors are locked to get into the "lobby". All windows in the front entrance are shut tight with the roll down aluminum partitions.  At this pony in beginning to question my decision to stay here.  What do they know that I don't?  Why the high security?  After I finally ring the desk clerk on the phone and tell her I need a room (I was going to book on my IHG app before I got there, but I was driving) she finally comes and opens the holding cell door and asks if I have a credit card and drivers license.  No welcome, no hello, no pleasantries typically extended to your paying customers.  Mind you, I was in a button up polo and nice jeans, and even after a 7 hour drive still was presentable.  She proceeded to take my card and ID and go back into the saferoom that is supposed to be the front desk and never said a word.  5 minutes later I call out and ask if everything was okay.  She said yes and she was just waiting on the computer.  She returns with a form to fill out...standard stuff, just very much more than I am used to.  Of course never once did she ask me if I was a loyalty member.  If she had, she would have seen that all of my information was on file and it would have saved us both a lot of time.  I'm not sure of this is a high crime area, it seems decent from the outside, but not sure why all the barred doors and windows.  Probably not going to chance it next time.  More</t>
   </si>
   <si>
+    <t>Alan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r319337213-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -576,6 +630,9 @@
     <t>I booked the hotel last minute at a discounted rate.  I was concerned that this hotel may not have been to my liking.  But I was certainly wrong.  The hotel was nicer than I expected for a hotel of this class.   Sometimes I have stayed places that were hit or miss.  I like the size of the room with the work areas.   I didn't have a chance to use the onsite fitness facilities but they do have a couple treadmills.  You can also just go for a run down the street.  The room I had looks like there may have been some water damage on the ceiling some time in the past.  Wasn't an issue to me but I know some people won't like it.  This is a place I would definitely stay in again the next time I am in Ft. Worth.  More</t>
   </si>
   <si>
+    <t>cailyncrandell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r318148735-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -589,6 +646,9 @@
   </si>
   <si>
     <t>It was a perfect place. Close to the stockyards. Price you can't beat. No pool. Complimentary washer/dryer. Only powder creamer (sucks) but bought a small think of milk to keep in the fridge in our room. Has a small stove top and microwave. Place was great for our trip!</t>
+  </si>
+  <si>
+    <t>Rob G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r290243697-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -618,6 +678,9 @@
 With two small children, we loved the free washers and dryers, and the mini-store came in handy when we needed to grab something quick...We stayed here for 6 months while searching for a new home and the staff went out of their way to make us feel at home.  This hotel worked very well for us, as a family with an almost 2 year old boy, and a new baby who arrived during our stay.  We can’t say enough good things about Martavus, Carrieann, Melissa, Shea, Michael, and the housekeeping staff, who always took care of our every need.The kitchen is very nice and well equipped, with a full size refrigerator/freezer, stove, microwave, dishwasher, and a good assortment of cookware, utensils and dishes.  They provide  many free amenities including paper towels, dish towels, dish soap and dishwasher detergent.  The kitchen lacks an oven, but you can check out a toaster oven from the front desk.  They have many other items you can check out as well, including a crock pot, blender, waffle iron, and toaster oven.  The kitchen is quite adequate to cook a wide variety of complete meals, as shown in the photos.We greatly enjoyed the very nice covered patio with two gas grills, and had several nice evening cookouts.  They even provide the grilling tools.  They also offer a large library of DVDs for free check-out to watch on the DVD/VCR player in the room.With two small children, we loved the free washers and dryers, and the mini-store came in handy when we needed to grab something quick to eat or drink. The hotel is well maintained, and during our stay they re-striped the parking lot and replaced all the sofas.  The front desk closes at 11 pm, but there is always an employee on site, and they were happy to help us after hours.  We would definitely stay here again!More</t>
   </si>
   <si>
+    <t>LynnzieLu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r279405071-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -639,6 +702,9 @@
     <t>The hubby and I have stayed at this property on two different occasions, both times were for a concert at Billy Bobs in the Ft Worth Stockyards. It's located within a 10 minute cab ride from the venue and has several restaurant options nearby.The recently refurbished rooms were large and perfect for a business traveler needing an extended stay. The suites come with a stocked kitchenette, a large desk and upgraded bathroom. The front desk staff was very friendly and the property comes with all the nice amenities standard with all Candlewood Suites. We really enjoyed our stay and plan to stay again next time we attend a concert in the StockyardsMore</t>
   </si>
   <si>
+    <t>fyre926</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r272841345-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -660,6 +726,9 @@
     <t>This facility provides all of the standard Candlewood amenities, free use of laundry machines (You bring your own detergent etc. or buy it at reasonable prices there. Full size refrigerator, kitchen sink with garbage disposal &amp; a stove top. Also included are pots/pans, dishes, silverware and a dishwasher &amp; full size microwave. I have stayed at numerous Candlewood sites around the country and these always provide a comfortable long term stay. There is not daily housekeeping or linen service, if you need clean towels etc you can take your used ones to the front desk for exchange. Now for this particular site, we found the staff to be pleasant &amp; welcoming. Of note at any Candlewood you might experience any number of odors as you move through the building given that many often cook in their rooms and it invariably makes its way into the hall at times. Not necessarily a bad thing however not everyone likes the smell of someone else's cooking so keep in mind its not the hotel its just a guest. We did find however that our room had a bit of an musty odor but we had some febreze with us and quickly freshened it up. Outside of that the room was as always spacious, clean &amp; comfortable. There is easy on easy off the highway &amp; a number of eateries close by even within walking distance. We would say before you take your family...This facility provides all of the standard Candlewood amenities, free use of laundry machines (You bring your own detergent etc. or buy it at reasonable prices there. Full size refrigerator, kitchen sink with garbage disposal &amp; a stove top. Also included are pots/pans, dishes, silverware and a dishwasher &amp; full size microwave. I have stayed at numerous Candlewood sites around the country and these always provide a comfortable long term stay. There is not daily housekeeping or linen service, if you need clean towels etc you can take your used ones to the front desk for exchange. Now for this particular site, we found the staff to be pleasant &amp; welcoming. Of note at any Candlewood you might experience any number of odors as you move through the building given that many often cook in their rooms and it invariably makes its way into the hall at times. Not necessarily a bad thing however not everyone likes the smell of someone else's cooking so keep in mind its not the hotel its just a guest. We did find however that our room had a bit of an musty odor but we had some febreze with us and quickly freshened it up. Outside of that the room was as always spacious, clean &amp; comfortable. There is easy on easy off the highway &amp; a number of eateries close by even within walking distance. We would say before you take your family to the Redneck Heaven restaurant next door you be aware it's similar to Hooters with less clothes.More</t>
   </si>
   <si>
+    <t>Clyde K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r265276049-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -676,6 +745,9 @@
   </si>
   <si>
     <t>We stayed here for one night on 4/7/15 to be with my sister during surgery the next day.  Our check in was seamless and very speedy.   Our room was a mini suite which was large with a mini kitchen.   The room was clean and well equipped.   For a business traveler this would be a great place to stay because of the large workstation area.   The bed was comfortable.  The was ample parking and there was no charge.   Due to a misunderstanding on my part on amenities, I missed the fact of no breakfast included.   Something to keep in mind if that is important to you.  The price to value was excellent. More</t>
+  </si>
+  <si>
+    <t>clagow16</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r265130105-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -700,6 +772,9 @@
 I was lucky enough to get a ground floor smoking room, though the hotel was moderately full, with easy access to the exterior door so that it was easier to take my dogs outside.  And the added feature of the pet walking area was wonderful, complete with clean up bags and waste receptacle. It was well-kept, mostly free of pet waste, mowed down and overall very...Where do I start??  Maybe because I don't travel much, thus I don't stay in hotels often; maybe because the night previous to my check-in at Candlewood Fossil Creek I stayed at a horrible, filthy extended stay with rude staff; whatever the reason, I cannot say enough good about Candlewood Fossil Creek! I needed a temporary extended stay hotel while I was preparing to move to a new residence that was not ready on time, and I needed one that accepted pets with few restrictions and reasonable fees.  It goes without saying, priority was also on cleanliness and safety, as well as accessibility to places I commonly frequent.  The Candlewood was absolutely perfect!  Upon checking in, the front desk staff was so nice, friendly and welcoming.  They have been patient with my various requests, which are not many, but a couple occurred after 11pm when the desk was technically closed for the night.  Not one of the staff members or management ever had anything except positive, sunny, happy dispositions, always so helpful and accommodating. I was lucky enough to get a ground floor smoking room, though the hotel was moderately full, with easy access to the exterior door so that it was easier to take my dogs outside.  And the added feature of the pet walking area was wonderful, complete with clean up bags and waste receptacle. It was well-kept, mostly free of pet waste, mowed down and overall very pleasant.The room itself, though handicapped accessible so missing the recliner advertised to be in most Queen Studio Suites, was well-stocked, very clean and extremely comfortable.  The bed was the most comfortable hotel bed in which I've ever slept.  The water pressure in the shower was fairly weak, but that's typically an aspect of conservation efforts, which are necessary for hotels as they accommodate many guests. I loved the added feature of the icemaker in the full size refrigerator!  Attention to detail and comfort was definitely in mind when the format of this hotel was designed.  A full length mirror, decent sized closet, ironing board/iron, deep drawers for storing folded clothing, large bathroom with well-placed electrical outlet, flat screen tv with cable, free wifi in room, the kitchen features and once again, that comfortable bed and nice fluffy pillows!  Cold AC that cooled the room quickly and kept it as cold as desired.If all that wasn't enough ... the Candlewood Cupboard was a really nice touch!  Terrific selection of basic snack and drink...More</t>
   </si>
   <si>
+    <t>RealHoltyboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r250922960-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -724,6 +799,9 @@
     <t>It looked as though the whole of the hotel had been refurbished. Well our floor and room did. Only a fifteen minute drive to downtown FW and there are a couple of options for food within walking distance.Clean room, good quality and modern with a gym and free laundry facilities.Only slight grumble would be the noise from the fridge/dishwasher which seemed quite loud.More</t>
   </si>
   <si>
+    <t>Slyclone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r245472756-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -751,6 +829,9 @@
     <t>Based on the reviews of TripAdvisor, we booked this hotel for the TCU/KSU football game.  Even though it was an event weekend, the price was very good!  And the location could not have been much better.  Just off the expressway, it has easy access to gas stations, restaurants, doughnut shops and a Quick Trip!  One side of the hotel faces the expressway.  The other side faces a horse farm.  Try to get an even numbered room so that you face the horse farm.  Would stay there again next time to Fort Worth.More</t>
   </si>
   <si>
+    <t>Bill D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r237876249-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -769,6 +850,9 @@
     <t>Booked on Hotels.Com so we got a good price even on a race weekend, which is pretty unheard of.  The room was clean more than adequate, the attendants were friendly, and the parking was ample.  We stayed two nights due to grandparent duties in nearby Keller.  The "pantry" was a good idea if you needed snacks or other necessary items.  A small honor system store with various food and drink items available.  We didn't have time to take advantage of the full kitchen with stove, microwave, refrigerator, pots, pans, silverware, etc.  We did however take big advantage of the auto coffee dispenser where you can fill your pot anytime.  We will be back.  Enjoyed it a lot.More</t>
   </si>
   <si>
+    <t>jeppert3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r236703036-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -793,6 +877,9 @@
     <t>The walls must be nearly uninsulated here because we can hear people moving around both upstairs and in adjacent rooms.  We were also unimpressed by the condition of some of the furniture, which was age-worn and torn.More</t>
   </si>
   <si>
+    <t>kelrie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r236124714-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -811,6 +898,9 @@
     <t>My husband and I have been staying at this property for 2 and a half weeks now and we love it! The staff is incredibly friendly, professional, and courteous. They know us by name and greet as whenever they see us. The GM is very involved with the guests and if you need anything at all he always comes through. We had asked where the dumpsters were so we could take out our own garbage and his exact words were "call us and we will do it, let us do our jobs". The housekeeping is amazing as well. Our room is sparkling after we get service. The front desk staff engages the guests and are always attentive to us. I never walk by and see them on their cellphones or taking personal calls, which is a rarity in this day and age. This is the friendliest and most professional staff out of every hotel we have stayed at, which is hundreds. It is also a very quiet property. No traffic noise and the guests are also all quiet. You, your family, and your wallet will enjoy staying here!More</t>
   </si>
   <si>
+    <t>one4cin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r225138765-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -838,12 +928,18 @@
     <t>Location chosen because 2 other choices were booked. All was clean except for bathroom area. They didn't clean the room during my stay. Not sure if that was policy or not. Area was a little unsavory. Lots of restaurant options close by. Also Had a mini kitchen but not used.  Ample parking. More</t>
   </si>
   <si>
+    <t>stephen y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r222528781-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>222528781</t>
   </si>
   <si>
+    <t>Alan D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r217725709-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -862,6 +958,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Edson_O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r209018358-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -880,6 +979,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>mdizX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r207570464-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -904,6 +1006,9 @@
     <t>This was a nice hotel, but had like a stale scent of smoke or something.  On our last night there, our air conditioner went out and they were nice and upgraded our room to a suite.  The hotel room was nice as it had a refridgerator, microwave, and stove for use.  Also they never came in to give us fresh towels, make our bed, or empty garbage. We had to use our old towels.More</t>
   </si>
   <si>
+    <t>729TGE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r206913959-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -919,6 +1024,9 @@
     <t>The reviews for this hotel were excellent, and it did not disappoint. The room was spacious and well-decorated, and included a small kitchen, a corner office, and a very comfortable bed. The bathroom was spacious and clean, and everything in the room worked perfectly. The staff was friendly and courteous, and I would not hesitate a second to book this hotel again. A+!</t>
   </si>
   <si>
+    <t>Howard P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r198229424-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -946,6 +1054,9 @@
     <t>The hotel attendant was pleasant and courteous, room had good amenities, but the smell made you want to puke!!!! Even after deodorizing it smelled like a smoking laboratory that gave all those rats cancer (figuratively speaking).More</t>
   </si>
   <si>
+    <t>TravelKat21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r195995964-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1072,9 @@
     <t xml:space="preserve">This location is relatively close to the Stockyards. We picked it because it was cheap and still part of the Priority Club rewards program. The staff was super friendly and the rooms were nice and clean.  Unfortunately there was no breakfast included. We ate at IHOP which is within walking distance. </t>
   </si>
   <si>
+    <t>Beverly_G_1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r193271505-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -979,6 +1093,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>OkArtist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r189939197-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -997,6 +1114,9 @@
     <t>We like this hotel.  This is the second time we have stayed here.  It's a little hard to get to because of the road construction, which seems to be going on forever.  Just trust your Garmin, and you'll eventually get there.  The first room that we were assigned, downstairs by the elevator, smelled like smoke.  We told the nice lady at the desk (Patsy, I think).  She immediately moved us to another room which was perfect.  (room 209)  The suite is not huge, but the bed is WONDERFUL.The bathroom was immaculate, and the small kitchen was perfect. There is no restaurant, or free breakfast, but the hotel is only a mile or so from every restaurant you could ever want, with discounts at a couple of them if you show your room key.  In addition, there is a little grocery store downstairs, with very reasonably priced food, which you purchase on the honor system.  I only hope they will eventually conclude the road construction.  We will definitely stay there again.More</t>
   </si>
   <si>
+    <t>DScotL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r187992182-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1135,9 @@
     <t>I stayed here for 3 nights and was pleasantly surprised by how nice the room was. The price was very low and I was prepared for something less. My suite was roomy, spotlessly clean and appeared to be recently updated. The suite included a nice 2-burner glass surface cooktop, microwave and full size refrigerator with an ice maker. Toaster, coffee pot and a small, but decent, set of cooking pots, knives, silverware, etc. Being able to make a couple of meals/snacks a day really helped keep the trip economical. The bed was completely comfortable. The climate control was fine and the window in my suite could be opened. Things were quiet while I was there. The location is somewhat remote. The back way out from the hotel goes through a modern warehouse district and connects to I-35 with no hassles. Expect a 10-15 minute drive to downtown even on the weekends in Fort Worth traffic. Basic grocery, liquor and fast food options are nearby. On the plus side, the property immediately surrounding the hotel has horses running on it -- very peaceful. Front desk folks were very nice and helpful.More</t>
   </si>
   <si>
+    <t>Janet_D_1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r185810743-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1036,6 +1159,9 @@
     <t>I booked about 10 rooms for a family reunion last weekend.  I actually booked because they were one of the cheapest rooms in town, and I was a little worried that it might be run down or seedy.This is definitely the nicest Candlewood Suites I have ever stayed at, on par with a nice new Residence Inn or a Hilton Garden Inn (except with a kitchen).  The rooms looked recently refurbished, with the new dark wood and modern design.  The clerk was incredibly friendly and organized at checkin.  The neighborhood felt industrial, as it was a highway location.  That section of the highway is under construction, so I guess that explains the low rates. I would definitely book here again.More</t>
   </si>
   <si>
+    <t>Ben0844</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r184440177-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1057,6 +1183,9 @@
     <t>We stayed at 4 different Candlewood during our trip in Texas and they were all good but this one was the best of the 4 hotels.The room was nice, very clean and had very confo beds and pillows.The hotel was quiet, clean and smelled good.The front desk service was excellent, friendly and helpful.There is a propane grill outside that was clean and fonctionnal (which was not always the case in other hotels).Great value for the price paid.Good location to visit Fort Worth (Stockyards and US$ printing facility) and only 1/2 hour to Dallas.Yes there is a lot (a lot!!) of road construction going on around this hotel so bring a GPS to make sure you don't get lost on hwy 820... ;)More</t>
   </si>
   <si>
+    <t>Lesley L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r182412357-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1079,6 +1208,9 @@
   </si>
   <si>
     <t>I have stayed at a couple of Candlewoods Suites before, so I understand this is a longer-term stay hotel which may have its downsides.  However, I could not stay the night here.  I ended up leaving about 30 minutes after checking in.  The hallways smelled horribly of smoke as soon as I got off the elevator.  Once in the room, the AC unit had a horrible smell.  I could hear the neighbors as if they were in my room.  I pulled down the sheets and saw some sort of a crumb.  The upkeep was "OK".  Floor corners were dirty.  Bathroom seemed fine.  Carpet was extremely warn.  Kitchen area needed updating/upkeep.  If I need to stay in that area, I will choose the Holiday Inn Express on I-35.  VERY NICE.More</t>
+  </si>
+  <si>
+    <t>allie181</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r171410710-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1108,6 +1240,9 @@
 Fi, ere is no swimming pool...I booked the deluxe suite. I was under the impression it had 2 beds however it turns out the 2nd bed was a pullout sofa. This was disappointing but apparently they don't have any rooms with 2 proper beds. However, the pullout was surprisingly comfy and everything else was so good that I was still able to rate this 5 stars. Our room had a full kitchen including stove, microwave, full size fridge with freezer section and bowls, cutlery etc. the bathroom was a good size and very clean. The room only gets cleaned if you sat &gt; 7 days but to be honest I prefer that otherwise I find myself tidying up in the morning for housekeeping or putting the do not disturb sign on my door. The hotel also offers a free laundry (you can buy soap etc for a small fee) and the room has an iron and ironing board. We didn't need to use these but for a longer stay this would have been great. Food is also within walking distance including Texas Roadhouse and a 24 hr Ihop. The TVs also worked well and had a decent number of channels. The trip to the Fort Worth Stockyards was less than 15 mins drive away. We had a rental car so this was a very convenient hotel. The hotel also had plenty of parking. I would definitely stay here again.Fi, ere is no swimming pool which was a pity as it was 40 degrees Celsius but the hotel next door had an outdoor pool which friends who were staying there invited us to use although we were too busy with other activities to do so.More</t>
   </si>
   <si>
+    <t>BigDaddy083</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r170569191-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1258,9 @@
     <t xml:space="preserve">The king size suites are very nice.  The AC is in the living room which reduces noise in the bed room.  The kitchen is functional and better than many I had in apartments.  Actually, this room was nicer than my first few apartments.  Very clean, well maintained, and walking distance to several restaurants.  The highways are close and under serious construction.  Rush hour can be very stressful.  </t>
   </si>
   <si>
+    <t>Robert W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r168123453-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1282,9 @@
     <t>Few things can make up for the amazing amount of construction going on in Ft Worth on the road system. The 820 loop is and amazing maze of ever changing  closed exits, alternate side roads and a plethora of other obstacles. But the hospitality and cordiality once at the property and returning to it after the magical mystery tour and off road experience of getting round Ft Worth makes it all worth ( Ft) it. Patty the night auditor particularly is outstanding and engaging. They call almost everyone by name and are most accommodating. The rooms are great and the upkeep ongoing. I highly recommend i t despite the road madness. Great value and pet friendly. Will stay there each time back for sure. See y'all there.More</t>
   </si>
   <si>
+    <t>Sarahrose G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r165988534-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1165,6 +1306,9 @@
     <t>My husband and I stayed here on Friday and Saturday of this past weekend and our stay was great! When we got to the room I was surprised at how clean it was. The bed was comfy and the hotel even left us popcorn in the microwave. There was a dishwasher and stovetop as well as a microwave and fridge/freezer in the room. Our room was on the third floor. The only things that were annoying was the lack of a pool and the annoying noise the elevator made (it was really loud). In addition the staff was pretty nice and there were a few restaurant's near by including a Texas Roadhouse within walking distance. The hotel is far from Dallas however it is easy on and easy off of the interstate. There are gas stations very close by and a Wal-Mart and Kroger Grocery store within a few miles on Beach Street. Overall I feel this place is worth the price and worth the stay.More</t>
   </si>
   <si>
+    <t>RJ56Mc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r165944780-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1342,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>billybirdsmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r144692701-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1219,6 +1366,9 @@
     <t>We reserved 7 rooms for a family funeral the middle of Oct 2012.  The staff, especially Pattie at the front desk, was wonderful in putting us all together in the same wing and on the same floor so that we could visit.  The rooms were clean and well appointed.  When there was a problem with smoking guests on our floor, it was taken care of immediately and we were furnished with an ionizer for the 'smoke allergic' member of our family. The staff was extremely helpful in furnishing us directions to our various locations in order to avoid the construction going on in that area.  When I needed a recommendation for lunch for 17 people, not only did I get a great recommendation, I was also handed a reservation already made for us by Pattie. She was extremely helpful, wonderful to deal with and sensitive to the nature of our stay.  We can't say enough good things about this hotel and will stay there again when we go back to visit family.More</t>
   </si>
   <si>
+    <t>AuntSandysPetGroom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r140445620-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1408,9 @@
     <t>We stayed here for an overnight visit to the Kimbell.  Nice staff, wonderful room...great bed.  Great small store downstairs with food and necessities at a very reasonable price.  I have stayed in other hotels where the store items are not priced and are atrociously overpriced, but this is NOT the case here.  I noticed there was a free library, and movies which you could borrow to watch.  I liked this hotel.I know it's not the hotel's fault, but the traffic was AWFUL.  Construction, re-routing...maybe that's a characteristic of DFW, like it is in Tulsa, but I was INSANE by the time I arrived, and the great room, soft bed and clean bathroom were just what I needed to unwind.Candlewood Suites  Fossil Creek  = 5 STARS, and we will stay there again.More</t>
   </si>
   <si>
+    <t>RanLove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r132669317-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1273,6 +1426,9 @@
     <t>Exercise room and pantry, laundry were super. Staff was cordial and responsive. Large suites with kitchen and large desk area. Set up for extended stays.</t>
   </si>
   <si>
+    <t>laneelms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r132128195-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1291,6 +1447,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>azkellyk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r118674077-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1469,9 @@
   </si>
   <si>
     <t>I got a great deal through priceline, but even at the regular rate it's a good value.  The staff was so nice, genuinely kind and helpful.  I got the best sleep I've ever had in a hotel.  The kitchen is fully equipped and they really thought of every detail to make it comfortable.  Parking and wifi are included in the price so they don't drown you in incidentals.  The room also had a tv with a dvd/vcr player and they had a lending library for movies.  I didn't use it so I don't know what the selection was like, but with hotels charging up to 16$ for pay per view movies you could go rent for a dollar these days I really appreciated it.  I have no plans to be back in Fort Worth but if I ever am I would stay here again without question.More</t>
+  </si>
+  <si>
+    <t>Reen3</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r94260175-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1341,6 +1503,9 @@
 If you are looking for a month long stay, at a reasonable...My husband and I stayed at the hotel for a month long business trip.  The staff was incredibly friendly, especially Patti! She is just such a pleasant, happy, helpful person! It is a very comfortable stay, with a desk, tv, dvd, comfortable bed, clean bathrooms, and a kitchenette with clean pots and pans and clean dishes for use.  It is a nice home away from home, and if you stay for an extended period, they come to your room once a week to clean.  There is FREE Laundry! Never have I seen that before! and a huge dvd library at the front desk that allows you to check out as often as you wish.... Again - free of charge.  There is a workout room, connected to the laundry and snack area that has enough equipment to get your workout in.  They kindly placed us up on the third floor and looking out the window in the morning, we can see the city of Fort Worth in the distance a beautiful horses in the field right across the parking lot.  Housekeeping and Service staff are constantly working cleaning, updating and making sure washer/dryers and the snack vending area with frozen meals, soda, water, ice cream, etc are working.  You can easily walk to a few restaurants and an easy drive (5min) to more food, grocery stores, Walgreens/CVS and Walmart.If you are looking for a month long stay, at a reasonable rate, and the basic amenities, this hotel was absolutely fitting.  And we really enjoyed the staff and the easy location to get onto the expressways and the basic stores around.  I highly recommend this hotel!More</t>
   </si>
   <si>
+    <t>TomatoBandit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r92033237-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1518,9 @@
     <t>We stayed here for 4 days, nice hotel. It's a little bit old, the room smells a little, however we pretty much used the hotel to sleep after being out all day.No room service, so if you need towels you will need to go downstairs.The staffs were really friendly.Laundry is available. Can purchase detergent and softener for $1 each. There are candies and sodas available, prices are def reasonable.  Gym is very basic and do-able. Free internet in the room, but it's not wi-fi. Overall good value.</t>
   </si>
   <si>
+    <t>Don P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r86072584-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1371,6 +1539,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>rletrip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r61892908-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1560,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>Asakim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r59830197-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1407,6 +1581,9 @@
     <t>The Candlewood Suites - Fort Worth/Fossil Creek are a good value for a short stay. Note: this is not a full service motel with breakfast buffet or daily room service. Our room had a kitchen and we did not miss the maid or restraunt.The location was good for our trip. The staff were friendly and helpful. The beds are listed as queen, but I think smaller (I did not take a tape measure). The room was clean, but evidently the room had an odor problem. An ionic air freshener was running when we opened the door. After some time, the air irritated our throats and eyes. We turned the machine off, opened the window and the air was OK. When we checked out, the manager said the machine should not have been running while we were in the room.More</t>
   </si>
   <si>
+    <t>AmitDdn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r44452877-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1425,6 +1602,9 @@
     <t>April 2006</t>
   </si>
   <si>
+    <t>Irisesareblue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r17752383-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1446,6 +1626,9 @@
     <t>Stayed here for July 5th through 7th through Priceline.  The hotel had good access to I-820 in North Fort Worth and was close driving distance to Motorola and other corporate offices in Fossil Creek and fast-food restaurants and some strip-mall stores along North Beach Street.     Staff  was very polite.  The Candlewood Cupboard had good selection of pre-packaged products which we used to prepare breakfast in our suite kitchen.  The kitchen had everything we needed and had a toaster, pots and pans, and enough cutlery/dishes for two persons.  The queen bed was comfortable and the bathroom large enough for 2 to get ready in the morning.   What surprised me was the leather (like?) recliner beside the bed - very comfortable and a great spot from which to watch TV.  The hotel front desk had DVDs to borrow, which was great.  The only thing the hotel lacks is a pool or hot tub, but it was no great problem as we never get to use either of these when we're on business anyway - so it's a moot point for this trip, however, for a family trip, it might have been a factor.No problems with our stay - very clean room and facilities.  Would stay here again.  Other reviews had complained about the parked semis in the surrounding areas but they didn't restrict driving on the streets in the area.More</t>
   </si>
   <si>
+    <t>Luv2BinPCB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r10991909-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1647,9 @@
     <t>We had the pleasure to visit the Ft Worth area for the first time in November.  My husband won a trip to the nascar race and we were booked at Candlewood Suites. The first thing I did was go on line and check out the place.  The reviews were old and didn't sound good.  But we thought it was free and for only two nights we could make it.  The travel agent called and told us my husband had won three nights, (ok, " this had better not be a dump"). To our surprise it was very nice, the room was clean and had everything we needed.  Everyone we spoke to was friendly and helpful.  The pantry downstairs was great, you could get snacks and didn't have to leave the building.  There was several nice places to eat at within walking distance.  If we get the chance to come back to the area we would book a room at the Candlewood.More</t>
   </si>
   <si>
+    <t>lethab2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r10599374-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1482,6 +1668,9 @@
     <t>November 2007</t>
   </si>
   <si>
+    <t>kaisersosa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r5478755-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1689,9 @@
     <t>We just came back from a three night stay at Candlewood Suites at Fossil Creek in Forth Worth, Texas.  This is an extended stay hotel, but we do not suggest that anyone stay for an extended visit!  The rooms are in need of renovation.  Our bathroom sink was not operational due to lack of water presure and the shower head leaked at its connection in the wall producing a daily flood.  We requested that they be fixed at the front desk for three days and then just gave up!  Also, since this is an extended stay there is literally no service.  If your idea of a get away is emptying your garbage can at the end of the hall, this place is for you!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r5440779-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1513,6 +1705,9 @@
   </si>
   <si>
     <t>We stayed at the Candlewood for almost a week  and upon arrival we reported a problem with the shower and a hole in the shower wall and nothing was done about it.  We also had to hunt the maids down for clean towels and had to empty our trash baskets each day. For the price we paid, we could have stayed at a motel with daily maid service. We travel a lot and we will not be staying here again.</t>
+  </si>
+  <si>
+    <t>grotshops</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r2502505-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -2032,43 +2227,47 @@
       <c r="A2" t="n">
         <v>34013</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>123928</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2082,50 +2281,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34013</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>123929</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2145,50 +2348,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34013</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>123930</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2200,56 +2407,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34013</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>123931</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2263,50 +2474,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34013</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>3897</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2320,50 +2535,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34013</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>123932</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2379,56 +2598,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34013</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>4517</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2446,56 +2669,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34013</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>123933</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2507,56 +2734,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>34013</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>12010</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2574,50 +2805,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>34013</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>123934</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2635,56 +2870,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>34013</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>123935</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2702,56 +2941,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34013</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>123936</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2771,50 +3014,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>34013</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>123937</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2828,50 +3075,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34013</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>103890</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2891,50 +3142,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>34013</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>123938</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2954,50 +3209,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>34013</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>54091</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3017,50 +3276,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>34013</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>21623</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3072,56 +3335,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="X18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>34013</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>5025</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3135,50 +3402,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>34013</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>123939</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3192,50 +3463,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>34013</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>82109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3255,50 +3530,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>34013</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>123940</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3318,50 +3597,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>34013</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>123941</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3381,50 +3664,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>34013</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>123942</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3438,50 +3725,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>34013</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>123943</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O25" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3499,50 +3790,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>34013</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>123944</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3554,56 +3849,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="X26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>34013</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>123945</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="O27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3619,56 +3918,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="X27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="Y27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>34013</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>53871</v>
+      </c>
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3688,50 +3991,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>34013</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>123946</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3743,56 +4050,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>34013</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>123947</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3810,50 +4121,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>34013</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>123948</v>
+      </c>
+      <c r="C31" t="s">
+        <v>288</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3865,38 +4180,42 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="X31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="Y31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>34013</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>123949</v>
+      </c>
+      <c r="C32" t="s">
+        <v>298</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s"/>
       <c r="K32" t="s"/>
@@ -3913,51 +4232,52 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>34013</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>28668</v>
+      </c>
+      <c r="C33" t="s">
+        <v>301</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="J33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3977,50 +4297,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>34013</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>123950</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4040,50 +4364,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>34013</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>123951</v>
+      </c>
+      <c r="C35" t="s">
+        <v>315</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="J35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4105,56 +4433,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="X35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>34013</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>123952</v>
+      </c>
+      <c r="C36" t="s">
+        <v>324</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4176,50 +4508,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>34013</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>7112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>330</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="O37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4241,56 +4577,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="X37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="Y37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>34013</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>123953</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="J38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4304,50 +4644,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>34013</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>123954</v>
+      </c>
+      <c r="C39" t="s">
+        <v>346</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="J39" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="O39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4371,50 +4715,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>34013</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>123955</v>
+      </c>
+      <c r="C40" t="s">
+        <v>353</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="J40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="K40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4438,50 +4786,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>34013</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>123956</v>
+      </c>
+      <c r="C41" t="s">
+        <v>360</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="J41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="K41" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4505,50 +4857,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>34013</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>123957</v>
+      </c>
+      <c r="C42" t="s">
+        <v>367</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="J42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="O42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4572,50 +4928,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>34013</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>123958</v>
+      </c>
+      <c r="C43" t="s">
+        <v>375</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="J43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="K43" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="L43" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="O43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4639,50 +4999,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>34013</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>8257</v>
+      </c>
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="K44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="L44" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4704,56 +5068,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="X44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="Y44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>34013</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>123959</v>
+      </c>
+      <c r="C45" t="s">
+        <v>392</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="J45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="K45" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="L45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="O45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4777,41 +5145,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>34013</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>123960</v>
+      </c>
+      <c r="C46" t="s">
+        <v>400</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="J46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="K46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="L46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
@@ -4840,50 +5212,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>34013</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>325</v>
+      </c>
+      <c r="C47" t="s">
+        <v>406</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="J47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="K47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="L47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4907,50 +5283,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>34013</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>123961</v>
+      </c>
+      <c r="C48" t="s">
+        <v>414</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="J48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="K48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4974,50 +5354,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>34013</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>123962</v>
+      </c>
+      <c r="C49" t="s">
+        <v>422</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="J49" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="K49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5041,7 +5425,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50">
@@ -5054,37 +5438,37 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="J50" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="K50" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="L50" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5108,50 +5492,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>34013</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>123963</v>
+      </c>
+      <c r="C51" t="s">
+        <v>434</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="J51" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="L51" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="O51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5175,50 +5563,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>34013</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>123964</v>
+      </c>
+      <c r="C52" t="s">
+        <v>442</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="J52" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="K52" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="L52" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="O52" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5242,50 +5634,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>34013</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>123954</v>
+      </c>
+      <c r="C53" t="s">
+        <v>353</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="J53" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="K53" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="L53" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5307,41 +5703,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>34013</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>123965</v>
+      </c>
+      <c r="C54" t="s">
+        <v>456</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="J54" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="K54" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="L54" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5370,50 +5770,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>34013</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>123966</v>
+      </c>
+      <c r="C55" t="s">
+        <v>462</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="J55" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5427,50 +5831,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>34013</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>123967</v>
+      </c>
+      <c r="C56" t="s">
+        <v>469</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="J56" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="K56" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="L56" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5494,50 +5902,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>34013</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>123968</v>
+      </c>
+      <c r="C57" t="s">
+        <v>477</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="J57" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="K57" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="L57" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5561,50 +5973,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>34013</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>123969</v>
+      </c>
+      <c r="C58" t="s">
+        <v>485</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="J58" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="K58" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="L58" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5628,50 +6044,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>34013</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>11788</v>
+      </c>
+      <c r="C59" t="s">
+        <v>490</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="J59" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="K59" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="L59" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5695,50 +6115,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>34013</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>123970</v>
+      </c>
+      <c r="C60" t="s">
+        <v>497</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="J60" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="K60" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="L60" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5762,50 +6186,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>34013</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>123971</v>
+      </c>
+      <c r="C61" t="s">
+        <v>504</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="J61" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="K61" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="L61" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5829,50 +6257,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>34013</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>123972</v>
+      </c>
+      <c r="C62" t="s">
+        <v>511</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="J62" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="K62" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="L62" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -5886,50 +6318,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>34013</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>123973</v>
+      </c>
+      <c r="C63" t="s">
+        <v>518</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="J63" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="K63" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="L63" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5953,41 +6389,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>34013</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>123974</v>
+      </c>
+      <c r="C64" t="s">
+        <v>526</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="J64" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="K64" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="L64" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6016,50 +6456,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>34013</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>123975</v>
+      </c>
+      <c r="C65" t="s">
+        <v>533</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="J65" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="K65" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="L65" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6083,41 +6527,45 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>34013</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>123976</v>
+      </c>
+      <c r="C66" t="s">
+        <v>540</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="J66" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="K66" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="L66" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
@@ -6136,41 +6584,45 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>34013</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>547</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="J67" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="K67" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="L67" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
@@ -6197,41 +6649,45 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>34013</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>123977</v>
+      </c>
+      <c r="C68" t="s">
+        <v>553</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="J68" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="K68" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="L68" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
@@ -6254,7 +6710,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_56.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_56.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="500">
   <si>
     <t>STR#</t>
   </si>
@@ -150,10 +150,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>CORRINE S</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r564880051-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -183,9 +180,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>freykr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r564737147-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>Stayed here for business for a few days. I liked being able to get fresh groceries from nearby store and cook my own meals, saved money and ate healthy. This property is not near any attractions or anything of interest, it worked for me for where I needed to go in this general DFW area and the cost was reasonable. The staff was friendly and helpful. The rooms were clean and bed comfortable. Behind the hotel is a park with a short walking trail and pond, it was nice to drink a cup of coffee in the lounge area then walk a bit in the nice weather in the evening in the park.More</t>
   </si>
   <si>
-    <t>Les013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r562096185-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -243,9 +234,6 @@
     <t>I checked into the hotel at 9:30pm. I thought the hotel was great, the location was wonderful and the room perfect. Ordinarily I would be leaving one of the best reviews, but I won’t. I found out today, that without my permission, they used a debit card I paid with for my incidental charge. I never gave them permission to do this, and I’ve never had a hotel do this. The room had been paid for and there was no need to use that debit card. Now I have overdraft fees and they offered no solutions on their end. I feel I’m owed at least a free night, because they committed fraud by using a card for something, without my permission. Now I’m worried what else they may due with my money and debit card without asking. I will just go to the Irving location from now on. Avoid these guys at all cost. More</t>
   </si>
   <si>
-    <t>wxman393</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r532854964-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t xml:space="preserve">Here for business but didn’t want to pay thousands of dollars to stay downtown. I forgot how many amenities that Candlewood provides, from the free parking to the free laundry. Having a full kitchen is excellent too!The fitness center has two treadmills, an elliptical, a recumbent bike, free weights and a Matrix weight station. Pretty good for this size property.The Candlewood Cupboard is convenient for any necessities you might need. Easy on and off to the interstate.Front desk girls are incredibly friendly! </t>
   </si>
   <si>
-    <t>teamHNH</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r509755946-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -285,9 +270,6 @@
     <t>We came for a weekend with our two dogs and we're able to check in early on a Friday afternoon. The room was clean and spacious. Each room is a suite so had full refrigerator microwave and stovetop. The bed was comfy and the bathroom  was  big.  Plently of space for two adults and two dogs. The area is nice and quiet for walking the dogs at any hour. I felt safe in the early mornings and at night as well. The desk staff was very friendly and courteous. The location was is about 6 miles from the stockyards and 6 mile  from downtown. A lyft ride was around 6-13 dollars. Would definitely stay  again and recommend. More</t>
   </si>
   <si>
-    <t>Bennie G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r473946275-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -315,9 +297,6 @@
     <t>My stay at this hotel was not good. The hallways smelled like smoke, the telephones inside the rooms did not work, the hallways and room needed updating, housekeeping did not exist while we were there. I thought the hotel was a nonsmoking hotel but the person at the front desk said the floor we were on was for smoking. The online reservation or the check in person said nothing about this, I only found out about it when I checked out.  The only good thing is the bed was very comfortable.More</t>
   </si>
   <si>
-    <t>Jamie S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r471176589-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -345,9 +324,6 @@
     <t>We are staying in one of the King suites with the separate bedroom and love the accommodations.   Plenty of drawer space, big bathroom, shower good, nice thick towels,  like the bar in the kitchen area that gives me added counter space. The front desk has never failed to greet us coming and going, check in was a breeze, even got a call after we moved in to see if we need ANYTHING.  The two burner cook top not very big but adequate for the two of us and love the stainless steel cookware.  Would definitely recommend this hotel to friends and family.More</t>
   </si>
   <si>
-    <t>Jed10005</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r448095301-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -376,9 +352,6 @@
   </si>
   <si>
     <t>The majority of the staff members were helpful, but the person who checked me out was completely apathetic and didn't thank me for staying or offer any appreciation for tolerating the condition of the property.  This hotel needs some attention to detail.  My room was dusty and the carpet was worn out.  They are in the middle of repairing some rooms from water damage and there is debris and Sheetrock dust in the hallway.  No effort at all to clean it up between working times.  The workout room has a lot of equipment, but the pantry is sparsely stocked.  The ceiling is very thin and you can hear every footstep in the room above you, so take a room on the top floor.  There is a lot of competition in the immediate area, so it would seem that more effort would be made to make the guests more comfortable.More</t>
-  </si>
-  <si>
-    <t>Matt M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r418047904-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -408,9 +381,6 @@
    The room was nice, roomy, and had everything I needed for a very comfortable 2 night stay.  The only issue at all was that I couldn't get the bedroom tv to work.  In this instance it wasn't a big deal since all I wanted to do was sleep and then head back to the hospital to be with my daughter and granddaughter.  The living room...I got the news while I was in Kansas that my daughter was in labor with her first child.  I drove to Ft Worth as quickly as possible and needed to find a hotel where I could stay for a couple nights.     I arrived at 6am at the Candlewood Suites.  The front desk wasn't open yet so I started to make a reservation at a computer terminal in the lobby.  In the middle of making my reservation I heard someone opening the front desk.  I asked the gal if she could help me or if she wanted me to just finish up using the computer.  She very graciously offered to help me.   While making my reservation for me, she was also very cognizant of other patrons coming and going and made sure to speak to all of them.  She got me set up in a nice suite for 2 nights and didn't make me wait until noon to check in which was a HUGE relief as I had been awake for about 30 straight hours.   The room was nice, roomy, and had everything I needed for a very comfortable 2 night stay.  The only issue at all was that I couldn't get the bedroom tv to work.  In this instance it wasn't a big deal since all I wanted to do was sleep and then head back to the hospital to be with my daughter and granddaughter.  The living room tv worked just fine.  The bathroom was spacious and very clean.  I was pleasantly surprised since the cost of the suite was very reasonable.    Since the Candlewood was near Joe's Pizza and Pasta and since they took great care of me, I will definitely be staying there again when I return to Ft Worth.More</t>
   </si>
   <si>
-    <t>adebayo122</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r417587912-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -435,9 +405,6 @@
     <t>These guys are horrible people, they screwed up the first day, two couples had to stay in the same room with kids. We had to sleep on the floor.The lady promised they will have it fixed the next day.On Saturday, September  3, 2016,we were at a wedding party around 11pm when the hotel called  and told us they made another mistake and oversold rooms so we will have to pack our bags and travel 10miles to another hotel.It is one of the most horrible things that ever happened to us,the staffers were extremely rude especially the Manager - I will never ever recommend him for a job after he loses this job. Very bad customer service and we are still dragging our refund with them for the two extra nights they charged. Save yourself headache and book elsewhere.More</t>
   </si>
   <si>
-    <t>ArmyNomad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r410346902-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -465,9 +432,6 @@
     <t>Nope. Run. I booked based on the positive reviews on this site - which leads me to think they were paid or patronized. The area is sketchy, the rooms/hallways/cupboard are outdated and dirty. My A/C blew out nasty smoke filled air all night, so I had to turn it off and sleep in the heat. The parking lot backs up to what a cashier down the street referred to as "meth lab central." Entire hallway stunk of new and old smoke. I left at 630 am and moved across town.I was told my points would be returned and they weren't. Single female travelers, beware.More</t>
   </si>
   <si>
-    <t>cheadler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r381681186-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -489,9 +453,6 @@
     <t>This is an extended stay type of hotel close to 820 Freeway, but far enough away so it’s quiet. An Outback restaurant and an Ihop are next door. They offered a lot of amenities free with the room not normally given. They had several outdoor BBQ pits connected to propane tanks you could use. Several people were BBQ’ing every evening making it smell great. The rooms offered a two burner electric stove but frying foods in a small room makes them smelly so the BBQ pits were a good idea. The laundry room was free washers and dryers; they worked very well. The gym was small but it had mirrors on three walls to make it appear larger.More</t>
   </si>
   <si>
-    <t>blake3305</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r373137467-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -510,9 +471,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Thomas E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r366944831-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -534,9 +492,6 @@
     <t>We have stayed at this location off and on from November 2015 to April 2016 long term stays.  Our family members have stayed here as well!  If you are looking for a long stay hotel that will accommodate all your needs and work with you to meet your comfort level this Candlewood location will truly go above and beyond to be there for their guests.  The GM Martavious is a great leader of his staff, we received especially great care from Blake who we recommended be on the fast track for management and Carrieann who has become a part of our family.  Our family was in crisis during our stay and this team made us feel welcome and cared for during our times of need.  Truly an amazing hotel!  Corporations - this is awesome for your employees, excellent location N. Fort Worth with all the amenities and venues for your convenience.More</t>
   </si>
   <si>
-    <t>Yorkie1948</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r356194854-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -555,9 +510,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Al M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r346436702-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -576,9 +528,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Rocky J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r333432768-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -606,9 +555,6 @@
     <t>Got into town late on business.  Since it's going to be an early morning, I wanted to lean towards the more frugal side.  No sense in spending too much for a room I will only use for 6 or 7 hours.  The last few Candlewood properties I have stayed in have really upped the bar on what I always perceived as lower end, no frills.  I thought I would give this property a chance.  Doors are locked to get into the "lobby". All windows in the front entrance are shut tight with the roll down aluminum partitions.  At this pony in beginning to question my decision to stay here.  What do they know that I don't?  Why the high security?  After I finally ring the desk clerk on the phone and tell her I need a room (I was going to book on my IHG app before I got there, but I was driving) she finally comes and opens the holding cell door and asks if I have a credit card and drivers license.  No welcome, no hello, no pleasantries typically extended to your paying customers.  Mind you, I was in a button up polo and nice jeans, and even after a 7 hour drive still was presentable.  She proceeded to take my card and ID and go back into the saferoom that is supposed to be the front desk and never said a word.  5 minutes later I call...Got into town late on business.  Since it's going to be an early morning, I wanted to lean towards the more frugal side.  No sense in spending too much for a room I will only use for 6 or 7 hours.  The last few Candlewood properties I have stayed in have really upped the bar on what I always perceived as lower end, no frills.  I thought I would give this property a chance.  Doors are locked to get into the "lobby". All windows in the front entrance are shut tight with the roll down aluminum partitions.  At this pony in beginning to question my decision to stay here.  What do they know that I don't?  Why the high security?  After I finally ring the desk clerk on the phone and tell her I need a room (I was going to book on my IHG app before I got there, but I was driving) she finally comes and opens the holding cell door and asks if I have a credit card and drivers license.  No welcome, no hello, no pleasantries typically extended to your paying customers.  Mind you, I was in a button up polo and nice jeans, and even after a 7 hour drive still was presentable.  She proceeded to take my card and ID and go back into the saferoom that is supposed to be the front desk and never said a word.  5 minutes later I call out and ask if everything was okay.  She said yes and she was just waiting on the computer.  She returns with a form to fill out...standard stuff, just very much more than I am used to.  Of course never once did she ask me if I was a loyalty member.  If she had, she would have seen that all of my information was on file and it would have saved us both a lot of time.  I'm not sure of this is a high crime area, it seems decent from the outside, but not sure why all the barred doors and windows.  Probably not going to chance it next time.  More</t>
   </si>
   <si>
-    <t>Alan S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r319337213-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -630,9 +576,6 @@
     <t>I booked the hotel last minute at a discounted rate.  I was concerned that this hotel may not have been to my liking.  But I was certainly wrong.  The hotel was nicer than I expected for a hotel of this class.   Sometimes I have stayed places that were hit or miss.  I like the size of the room with the work areas.   I didn't have a chance to use the onsite fitness facilities but they do have a couple treadmills.  You can also just go for a run down the street.  The room I had looks like there may have been some water damage on the ceiling some time in the past.  Wasn't an issue to me but I know some people won't like it.  This is a place I would definitely stay in again the next time I am in Ft. Worth.  More</t>
   </si>
   <si>
-    <t>cailyncrandell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r318148735-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -646,9 +589,6 @@
   </si>
   <si>
     <t>It was a perfect place. Close to the stockyards. Price you can't beat. No pool. Complimentary washer/dryer. Only powder creamer (sucks) but bought a small think of milk to keep in the fridge in our room. Has a small stove top and microwave. Place was great for our trip!</t>
-  </si>
-  <si>
-    <t>Rob G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r290243697-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -678,9 +618,6 @@
 With two small children, we loved the free washers and dryers, and the mini-store came in handy when we needed to grab something quick...We stayed here for 6 months while searching for a new home and the staff went out of their way to make us feel at home.  This hotel worked very well for us, as a family with an almost 2 year old boy, and a new baby who arrived during our stay.  We can’t say enough good things about Martavus, Carrieann, Melissa, Shea, Michael, and the housekeeping staff, who always took care of our every need.The kitchen is very nice and well equipped, with a full size refrigerator/freezer, stove, microwave, dishwasher, and a good assortment of cookware, utensils and dishes.  They provide  many free amenities including paper towels, dish towels, dish soap and dishwasher detergent.  The kitchen lacks an oven, but you can check out a toaster oven from the front desk.  They have many other items you can check out as well, including a crock pot, blender, waffle iron, and toaster oven.  The kitchen is quite adequate to cook a wide variety of complete meals, as shown in the photos.We greatly enjoyed the very nice covered patio with two gas grills, and had several nice evening cookouts.  They even provide the grilling tools.  They also offer a large library of DVDs for free check-out to watch on the DVD/VCR player in the room.With two small children, we loved the free washers and dryers, and the mini-store came in handy when we needed to grab something quick to eat or drink. The hotel is well maintained, and during our stay they re-striped the parking lot and replaced all the sofas.  The front desk closes at 11 pm, but there is always an employee on site, and they were happy to help us after hours.  We would definitely stay here again!More</t>
   </si>
   <si>
-    <t>LynnzieLu</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r279405071-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -702,9 +639,6 @@
     <t>The hubby and I have stayed at this property on two different occasions, both times were for a concert at Billy Bobs in the Ft Worth Stockyards. It's located within a 10 minute cab ride from the venue and has several restaurant options nearby.The recently refurbished rooms were large and perfect for a business traveler needing an extended stay. The suites come with a stocked kitchenette, a large desk and upgraded bathroom. The front desk staff was very friendly and the property comes with all the nice amenities standard with all Candlewood Suites. We really enjoyed our stay and plan to stay again next time we attend a concert in the StockyardsMore</t>
   </si>
   <si>
-    <t>fyre926</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r272841345-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -726,9 +660,6 @@
     <t>This facility provides all of the standard Candlewood amenities, free use of laundry machines (You bring your own detergent etc. or buy it at reasonable prices there. Full size refrigerator, kitchen sink with garbage disposal &amp; a stove top. Also included are pots/pans, dishes, silverware and a dishwasher &amp; full size microwave. I have stayed at numerous Candlewood sites around the country and these always provide a comfortable long term stay. There is not daily housekeeping or linen service, if you need clean towels etc you can take your used ones to the front desk for exchange. Now for this particular site, we found the staff to be pleasant &amp; welcoming. Of note at any Candlewood you might experience any number of odors as you move through the building given that many often cook in their rooms and it invariably makes its way into the hall at times. Not necessarily a bad thing however not everyone likes the smell of someone else's cooking so keep in mind its not the hotel its just a guest. We did find however that our room had a bit of an musty odor but we had some febreze with us and quickly freshened it up. Outside of that the room was as always spacious, clean &amp; comfortable. There is easy on easy off the highway &amp; a number of eateries close by even within walking distance. We would say before you take your family...This facility provides all of the standard Candlewood amenities, free use of laundry machines (You bring your own detergent etc. or buy it at reasonable prices there. Full size refrigerator, kitchen sink with garbage disposal &amp; a stove top. Also included are pots/pans, dishes, silverware and a dishwasher &amp; full size microwave. I have stayed at numerous Candlewood sites around the country and these always provide a comfortable long term stay. There is not daily housekeeping or linen service, if you need clean towels etc you can take your used ones to the front desk for exchange. Now for this particular site, we found the staff to be pleasant &amp; welcoming. Of note at any Candlewood you might experience any number of odors as you move through the building given that many often cook in their rooms and it invariably makes its way into the hall at times. Not necessarily a bad thing however not everyone likes the smell of someone else's cooking so keep in mind its not the hotel its just a guest. We did find however that our room had a bit of an musty odor but we had some febreze with us and quickly freshened it up. Outside of that the room was as always spacious, clean &amp; comfortable. There is easy on easy off the highway &amp; a number of eateries close by even within walking distance. We would say before you take your family to the Redneck Heaven restaurant next door you be aware it's similar to Hooters with less clothes.More</t>
   </si>
   <si>
-    <t>Clyde K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r265276049-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -745,9 +676,6 @@
   </si>
   <si>
     <t>We stayed here for one night on 4/7/15 to be with my sister during surgery the next day.  Our check in was seamless and very speedy.   Our room was a mini suite which was large with a mini kitchen.   The room was clean and well equipped.   For a business traveler this would be a great place to stay because of the large workstation area.   The bed was comfortable.  The was ample parking and there was no charge.   Due to a misunderstanding on my part on amenities, I missed the fact of no breakfast included.   Something to keep in mind if that is important to you.  The price to value was excellent. More</t>
-  </si>
-  <si>
-    <t>clagow16</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r265130105-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -764,15 +692,12 @@
   <si>
     <t>Where do I start??  Maybe because I don't travel much, thus I don't stay in hotels often; maybe because the night previous to my check-in at Candlewood Fossil Creek I stayed at a horrible, filthy extended stay with rude staff; whatever the reason, I cannot say enough good about Candlewood Fossil Creek! 
 I needed a temporary extended stay hotel while I was preparing to move to a new residence that was not ready on time, and I needed one that accepted pets with few restrictions and reasonable fees.  It goes without saying, priority was also on cleanliness and safety, as well as accessibility to places I commonly frequent.  The Candlewood was absolutely perfect!  Upon checking in, the front desk staff was so nice, friendly and welcoming.  They have been patient with my various requests, which are not many, but a couple occurred after 11pm when the desk was technically closed for the night.  Not one of the staff members or management ever had anything except positive, sunny, happy dispositions, always so helpful and accommodating. 
-I was lucky enough to get a ground floor smoking room, though the hotel was moderately full, with easy access to the exterior door so that it was easier to take my dogs outside.  And the added feature of the pet walking area was wonderful, complete with clean up bags and waste receptacle. It was well-kept, mostly free of pet waste, mowed down and overall very...Where do I start??  Maybe because I don't travel much, thus I don't stay in hotels often; maybe because the night previous to my check-in at Candlewood Fossil Creek I stayed at a horrible, filthy extended stay with rude staff; whatever the reason, I cannot say enough good about Candlewood Fossil Creek! I needed a temporary extended stay hotel while I was preparing to move to a new residence that was not ready on time, and I needed one that accepted pets with few restrictions and reasonable fees.  It goes without saying, priority was also on cleanliness and safety, as well as accessibility to places I commonly frequent.  The Candlewood was absolutely perfect!  Upon checking in, the front desk staff was so nice, friendly and welcoming.  They have been patient with my various requests, which are not many, but a couple occurred after 11pm when the desk was technically closed for the night.  Not one of the staff members or management ever had anything except positive, sunny, happy dispositions, always so helpful and accommodating. I was lucky enough to get a ground floor smoking room, though the hotel was moderately full, with easy access to the exterior door so that it was easier to take my dogs outside.  And the added feature of the pet walking area was wonderful, complete with clean up bags and waste receptacle. It was well-kept, mostly free of pet waste, mowed down and overall very pleasant.The room itself, though handicapped accessible so missing the recliner advertised to be in most Queen Studio Suites, was well-stocked, very clean and extremely comfortable.  The bed was the most comfortable hotel bed in which I've ever slept.  The water pressure in the shower was fairly weak, but that's typically an aspect of conservation efforts, which are necessary for hotels as they accommodate many guests. I loved the added feature of the icemaker in the full size refrigerator!  Attention to detail and comfort was definitely in mind when the format of this hotel was designed.  A full length mirror, decent sized closet, ironing board/iron, deep drawers for storing folded clothing, large bathroom with well-placed electrical outlet, flat screen tv with cable, free wifi in room, the kitchen features and once again, that comfortable bed and nice fluffy pillows!  Cold AC that cooled the room quickly and kept it as cold as desired.If all that wasn't enough ... the Candlewood Cupboard was a really nice touch!  Terrific selection of basic snack and drink...MoreShow less</t>
+I was lucky enough to get a ground floor smoking room, though the hotel was moderately full, with easy access to the exterior door so that it was easier to take my dogs outside.  And the added feature of the pet walking area was wonderful, complete with clean up bags and waste receptacle. It was well-kept, mostly free of pet waste, mowed down and overall very...Where do I start??  Maybe because I don't travel much, thus I don't stay in hotels often; maybe because the night previous to my check-in at Candlewood Fossil Creek I stayed at a horrible, filthy extended stay with rude staff; whatever the reason, I cannot say enough good about Candlewood Fossil Creek! I needed a temporary extended stay hotel while I was preparing to move to a new residence that was not ready on time, and I needed one that accepted pets with few restrictions and reasonable fees.  It goes without saying, priority was also on cleanliness and safety, as well as accessibility to places I commonly frequent.  The Candlewood was absolutely perfect!  Upon checking in, the front desk staff was so nice, friendly and welcoming.  They have been patient with my various requests, which are not many, but a couple occurred after 11pm when the desk was technically closed for the night.  Not one of the staff members or management ever had anything except positive, sunny, happy dispositions, always so helpful and accommodating. I was lucky enough to get a ground floor smoking room, though the hotel was moderately full, with easy access to the exterior door so that it was easier to take my dogs outside.  And the added feature of the pet walking area was wonderful, complete with clean up bags and waste receptacle. It was well-kept, mostly free of pet waste, mowed down and overall very pleasant.The room itself, though handicapped accessible so missing the recliner advertised to be in most Queen Studio Suites, was well-stocked, very clean and extremely comfortable.  The bed was the most comfortable hotel bed in which I've ever slept.  The water pressure in the shower was fairly weak, but that's typically an aspect of conservation efforts, which are necessary for hotels as they accommodate many guests. I loved the added feature of the icemaker in the full size refrigerator!  Attention to detail and comfort was definitely in mind when the format of this hotel was designed.  A full length mirror, decent sized closet, ironing board/iron, deep drawers for storing folded clothing, large bathroom with well-placed electrical outlet, flat screen tv with cable, free wifi in room, the kitchen features and once again, that comfortable bed and nice fluffy pillows!  Cold AC that cooled the room quickly and kept it as cold as desired.If all that wasn't enough ... the Candlewood Cupboard was a really nice touch!  Terrific selection of basic snack and drink items, frozen breakfast and dinner entrees, coffee always ready and hot, soft drinks and juices, and all easily accessible and could be paid with cash anytime day or night or charged to the room.  The free laundry facility and workout room was awesome!  And then there was a lending locker where guests could borrow, for free, DVDs, office supplies, games, small appliances, anytime of day or night also.  Really it was a terrific hotel, great conveniences and amenities, clean, safe, comfortable, and rounded out fantastically by a stellar staff.  I didn't get all their names but Carrie Anne (sp?) and Marty were so helpful and attentive during my stay when I needed something. Honestly, the only things that would even come close to being negative were the low water pressure and that I had to have my keys re-coded several times during my stay because they would stop working all of a sudden. Sound is easily heard from the hall, but I didn't hear my neighbors on each side at all.  I would definitely recommend Candlewood Fossil Creek - highly, enthusiastically and emphatically - to anyone looking to stay in this area of North Fort Worth for a night or a week or a month!  Pet friendly for multiple pets per family up to 80 pounds each, minimal fees required for pets.  Well-equipped, clean, comfortable, convenient and super friendly!  I would choose this hotel time and again over Omni, Four Seasons or any luxury hotel!  They keep it real while still keeping it up to a high standard!MoreShow less</t>
   </si>
   <si>
     <t>Where do I start??  Maybe because I don't travel much, thus I don't stay in hotels often; maybe because the night previous to my check-in at Candlewood Fossil Creek I stayed at a horrible, filthy extended stay with rude staff; whatever the reason, I cannot say enough good about Candlewood Fossil Creek! 
 I needed a temporary extended stay hotel while I was preparing to move to a new residence that was not ready on time, and I needed one that accepted pets with few restrictions and reasonable fees.  It goes without saying, priority was also on cleanliness and safety, as well as accessibility to places I commonly frequent.  The Candlewood was absolutely perfect!  Upon checking in, the front desk staff was so nice, friendly and welcoming.  They have been patient with my various requests, which are not many, but a couple occurred after 11pm when the desk was technically closed for the night.  Not one of the staff members or management ever had anything except positive, sunny, happy dispositions, always so helpful and accommodating. 
-I was lucky enough to get a ground floor smoking room, though the hotel was moderately full, with easy access to the exterior door so that it was easier to take my dogs outside.  And the added feature of the pet walking area was wonderful, complete with clean up bags and waste receptacle. It was well-kept, mostly free of pet waste, mowed down and overall very...Where do I start??  Maybe because I don't travel much, thus I don't stay in hotels often; maybe because the night previous to my check-in at Candlewood Fossil Creek I stayed at a horrible, filthy extended stay with rude staff; whatever the reason, I cannot say enough good about Candlewood Fossil Creek! I needed a temporary extended stay hotel while I was preparing to move to a new residence that was not ready on time, and I needed one that accepted pets with few restrictions and reasonable fees.  It goes without saying, priority was also on cleanliness and safety, as well as accessibility to places I commonly frequent.  The Candlewood was absolutely perfect!  Upon checking in, the front desk staff was so nice, friendly and welcoming.  They have been patient with my various requests, which are not many, but a couple occurred after 11pm when the desk was technically closed for the night.  Not one of the staff members or management ever had anything except positive, sunny, happy dispositions, always so helpful and accommodating. I was lucky enough to get a ground floor smoking room, though the hotel was moderately full, with easy access to the exterior door so that it was easier to take my dogs outside.  And the added feature of the pet walking area was wonderful, complete with clean up bags and waste receptacle. It was well-kept, mostly free of pet waste, mowed down and overall very pleasant.The room itself, though handicapped accessible so missing the recliner advertised to be in most Queen Studio Suites, was well-stocked, very clean and extremely comfortable.  The bed was the most comfortable hotel bed in which I've ever slept.  The water pressure in the shower was fairly weak, but that's typically an aspect of conservation efforts, which are necessary for hotels as they accommodate many guests. I loved the added feature of the icemaker in the full size refrigerator!  Attention to detail and comfort was definitely in mind when the format of this hotel was designed.  A full length mirror, decent sized closet, ironing board/iron, deep drawers for storing folded clothing, large bathroom with well-placed electrical outlet, flat screen tv with cable, free wifi in room, the kitchen features and once again, that comfortable bed and nice fluffy pillows!  Cold AC that cooled the room quickly and kept it as cold as desired.If all that wasn't enough ... the Candlewood Cupboard was a really nice touch!  Terrific selection of basic snack and drink...More</t>
-  </si>
-  <si>
-    <t>RealHoltyboy</t>
+I was lucky enough to get a ground floor smoking room, though the hotel was moderately full, with easy access to the exterior door so that it was easier to take my dogs outside.  And the added feature of the pet walking area was wonderful, complete with clean up bags and waste receptacle. It was well-kept, mostly free of pet waste, mowed down and overall very...Where do I start??  Maybe because I don't travel much, thus I don't stay in hotels often; maybe because the night previous to my check-in at Candlewood Fossil Creek I stayed at a horrible, filthy extended stay with rude staff; whatever the reason, I cannot say enough good about Candlewood Fossil Creek! I needed a temporary extended stay hotel while I was preparing to move to a new residence that was not ready on time, and I needed one that accepted pets with few restrictions and reasonable fees.  It goes without saying, priority was also on cleanliness and safety, as well as accessibility to places I commonly frequent.  The Candlewood was absolutely perfect!  Upon checking in, the front desk staff was so nice, friendly and welcoming.  They have been patient with my various requests, which are not many, but a couple occurred after 11pm when the desk was technically closed for the night.  Not one of the staff members or management ever had anything except positive, sunny, happy dispositions, always so helpful and accommodating. I was lucky enough to get a ground floor smoking room, though the hotel was moderately full, with easy access to the exterior door so that it was easier to take my dogs outside.  And the added feature of the pet walking area was wonderful, complete with clean up bags and waste receptacle. It was well-kept, mostly free of pet waste, mowed down and overall very pleasant.The room itself, though handicapped accessible so missing the recliner advertised to be in most Queen Studio Suites, was well-stocked, very clean and extremely comfortable.  The bed was the most comfortable hotel bed in which I've ever slept.  The water pressure in the shower was fairly weak, but that's typically an aspect of conservation efforts, which are necessary for hotels as they accommodate many guests. I loved the added feature of the icemaker in the full size refrigerator!  Attention to detail and comfort was definitely in mind when the format of this hotel was designed.  A full length mirror, decent sized closet, ironing board/iron, deep drawers for storing folded clothing, large bathroom with well-placed electrical outlet, flat screen tv with cable, free wifi in room, the kitchen features and once again, that comfortable bed and nice fluffy pillows!  Cold AC that cooled the room quickly and kept it as cold as desired.If all that wasn't enough ... the Candlewood Cupboard was a really nice touch!  Terrific selection of basic snack and drink items, frozen breakfast and dinner entrees, coffee always ready and hot, soft drinks and juices, and all easily accessible and could be paid with cash anytime day or night or charged to the room.  The free laundry facility and workout room was awesome!  And then there was a lending locker where guests could borrow, for free, DVDs, office supplies, games, small appliances, anytime of day or night also.  Really it was a terrific hotel, great conveniences and amenities, clean, safe, comfortable, and rounded out fantastically by a stellar staff.  I didn't get all their names but Carrie Anne (sp?) and Marty were so helpful and attentive during my stay when I needed something. Honestly, the only things that would even come close to being negative were the low water pressure and that I had to have my keys re-coded several times during my stay because they would stop working all of a sudden. Sound is easily heard from the hall, but I didn't hear my neighbors on each side at all.  I would definitely recommend Candlewood Fossil Creek - highly, enthusiastically and emphatically - to anyone looking to stay in this area of North Fort Worth for a night or a week or a month!  Pet friendly for multiple pets per family up to 80 pounds each, minimal fees required for pets.  Well-equipped, clean, comfortable, convenient and super friendly!  I would choose this hotel time and again over Omni, Four Seasons or any luxury hotel!  They keep it real while still keeping it up to a high standard!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r250922960-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -799,9 +724,6 @@
     <t>It looked as though the whole of the hotel had been refurbished. Well our floor and room did. Only a fifteen minute drive to downtown FW and there are a couple of options for food within walking distance.Clean room, good quality and modern with a gym and free laundry facilities.Only slight grumble would be the noise from the fridge/dishwasher which seemed quite loud.More</t>
   </si>
   <si>
-    <t>Slyclone</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r245472756-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -829,9 +751,6 @@
     <t>Based on the reviews of TripAdvisor, we booked this hotel for the TCU/KSU football game.  Even though it was an event weekend, the price was very good!  And the location could not have been much better.  Just off the expressway, it has easy access to gas stations, restaurants, doughnut shops and a Quick Trip!  One side of the hotel faces the expressway.  The other side faces a horse farm.  Try to get an even numbered room so that you face the horse farm.  Would stay there again next time to Fort Worth.More</t>
   </si>
   <si>
-    <t>Bill D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r237876249-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -850,9 +769,6 @@
     <t>Booked on Hotels.Com so we got a good price even on a race weekend, which is pretty unheard of.  The room was clean more than adequate, the attendants were friendly, and the parking was ample.  We stayed two nights due to grandparent duties in nearby Keller.  The "pantry" was a good idea if you needed snacks or other necessary items.  A small honor system store with various food and drink items available.  We didn't have time to take advantage of the full kitchen with stove, microwave, refrigerator, pots, pans, silverware, etc.  We did however take big advantage of the auto coffee dispenser where you can fill your pot anytime.  We will be back.  Enjoyed it a lot.More</t>
   </si>
   <si>
-    <t>jeppert3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r236703036-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -877,9 +793,6 @@
     <t>The walls must be nearly uninsulated here because we can hear people moving around both upstairs and in adjacent rooms.  We were also unimpressed by the condition of some of the furniture, which was age-worn and torn.More</t>
   </si>
   <si>
-    <t>kelrie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r236124714-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -898,9 +811,6 @@
     <t>My husband and I have been staying at this property for 2 and a half weeks now and we love it! The staff is incredibly friendly, professional, and courteous. They know us by name and greet as whenever they see us. The GM is very involved with the guests and if you need anything at all he always comes through. We had asked where the dumpsters were so we could take out our own garbage and his exact words were "call us and we will do it, let us do our jobs". The housekeeping is amazing as well. Our room is sparkling after we get service. The front desk staff engages the guests and are always attentive to us. I never walk by and see them on their cellphones or taking personal calls, which is a rarity in this day and age. This is the friendliest and most professional staff out of every hotel we have stayed at, which is hundreds. It is also a very quiet property. No traffic noise and the guests are also all quiet. You, your family, and your wallet will enjoy staying here!More</t>
   </si>
   <si>
-    <t>one4cin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r225138765-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -928,16 +838,28 @@
     <t>Location chosen because 2 other choices were booked. All was clean except for bathroom area. They didn't clean the room during my stay. Not sure if that was policy or not. Area was a little unsavory. Lots of restaurant options close by. Also Had a mini kitchen but not used.  Ample parking. More</t>
   </si>
   <si>
-    <t>stephen y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r222528781-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>222528781</t>
   </si>
   <si>
-    <t>Alan D</t>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Wrong price</t>
+  </si>
+  <si>
+    <t>Here it said $66.00, when I got there it was  $84.00 plus tax.!!!!!!!! Now I have to find another place to stay.!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!! I guess I am done with the candle!!!!!!!!!!!!!!! !!!! Now I'm looking for charactersMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites - Fort Worth/Fossil Creek, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Here it said $66.00, when I got there it was  $84.00 plus tax.!!!!!!!! Now I have to find another place to stay.!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!! I guess I am done with the candle!!!!!!!!!!!!!!! !!!! Now I'm looking for charactersMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r217725709-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -958,9 +880,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>Edson_O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r209018358-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -979,9 +898,6 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>mdizX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r207570464-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1006,9 +922,6 @@
     <t>This was a nice hotel, but had like a stale scent of smoke or something.  On our last night there, our air conditioner went out and they were nice and upgraded our room to a suite.  The hotel room was nice as it had a refridgerator, microwave, and stove for use.  Also they never came in to give us fresh towels, make our bed, or empty garbage. We had to use our old towels.More</t>
   </si>
   <si>
-    <t>729TGE</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r206913959-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1024,9 +937,6 @@
     <t>The reviews for this hotel were excellent, and it did not disappoint. The room was spacious and well-decorated, and included a small kitchen, a corner office, and a very comfortable bed. The bathroom was spacious and clean, and everything in the room worked perfectly. The staff was friendly and courteous, and I would not hesitate a second to book this hotel again. A+!</t>
   </si>
   <si>
-    <t>Howard P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r198229424-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1054,9 +964,6 @@
     <t>The hotel attendant was pleasant and courteous, room had good amenities, but the smell made you want to puke!!!! Even after deodorizing it smelled like a smoking laboratory that gave all those rats cancer (figuratively speaking).More</t>
   </si>
   <si>
-    <t>TravelKat21</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r195995964-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1072,9 +979,6 @@
     <t xml:space="preserve">This location is relatively close to the Stockyards. We picked it because it was cheap and still part of the Priority Club rewards program. The staff was super friendly and the rooms were nice and clean.  Unfortunately there was no breakfast included. We ate at IHOP which is within walking distance. </t>
   </si>
   <si>
-    <t>Beverly_G_1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r193271505-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1093,9 +997,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>OkArtist</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r189939197-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1114,9 +1015,6 @@
     <t>We like this hotel.  This is the second time we have stayed here.  It's a little hard to get to because of the road construction, which seems to be going on forever.  Just trust your Garmin, and you'll eventually get there.  The first room that we were assigned, downstairs by the elevator, smelled like smoke.  We told the nice lady at the desk (Patsy, I think).  She immediately moved us to another room which was perfect.  (room 209)  The suite is not huge, but the bed is WONDERFUL.The bathroom was immaculate, and the small kitchen was perfect. There is no restaurant, or free breakfast, but the hotel is only a mile or so from every restaurant you could ever want, with discounts at a couple of them if you show your room key.  In addition, there is a little grocery store downstairs, with very reasonably priced food, which you purchase on the honor system.  I only hope they will eventually conclude the road construction.  We will definitely stay there again.More</t>
   </si>
   <si>
-    <t>DScotL</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r187992182-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1135,9 +1033,6 @@
     <t>I stayed here for 3 nights and was pleasantly surprised by how nice the room was. The price was very low and I was prepared for something less. My suite was roomy, spotlessly clean and appeared to be recently updated. The suite included a nice 2-burner glass surface cooktop, microwave and full size refrigerator with an ice maker. Toaster, coffee pot and a small, but decent, set of cooking pots, knives, silverware, etc. Being able to make a couple of meals/snacks a day really helped keep the trip economical. The bed was completely comfortable. The climate control was fine and the window in my suite could be opened. Things were quiet while I was there. The location is somewhat remote. The back way out from the hotel goes through a modern warehouse district and connects to I-35 with no hassles. Expect a 10-15 minute drive to downtown even on the weekends in Fort Worth traffic. Basic grocery, liquor and fast food options are nearby. On the plus side, the property immediately surrounding the hotel has horses running on it -- very peaceful. Front desk folks were very nice and helpful.More</t>
   </si>
   <si>
-    <t>Janet_D_1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r185810743-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1159,9 +1054,6 @@
     <t>I booked about 10 rooms for a family reunion last weekend.  I actually booked because they were one of the cheapest rooms in town, and I was a little worried that it might be run down or seedy.This is definitely the nicest Candlewood Suites I have ever stayed at, on par with a nice new Residence Inn or a Hilton Garden Inn (except with a kitchen).  The rooms looked recently refurbished, with the new dark wood and modern design.  The clerk was incredibly friendly and organized at checkin.  The neighborhood felt industrial, as it was a highway location.  That section of the highway is under construction, so I guess that explains the low rates. I would definitely book here again.More</t>
   </si>
   <si>
-    <t>Ben0844</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r184440177-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1183,9 +1075,6 @@
     <t>We stayed at 4 different Candlewood during our trip in Texas and they were all good but this one was the best of the 4 hotels.The room was nice, very clean and had very confo beds and pillows.The hotel was quiet, clean and smelled good.The front desk service was excellent, friendly and helpful.There is a propane grill outside that was clean and fonctionnal (which was not always the case in other hotels).Great value for the price paid.Good location to visit Fort Worth (Stockyards and US$ printing facility) and only 1/2 hour to Dallas.Yes there is a lot (a lot!!) of road construction going on around this hotel so bring a GPS to make sure you don't get lost on hwy 820... ;)More</t>
   </si>
   <si>
-    <t>Lesley L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r182412357-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1208,9 +1097,6 @@
   </si>
   <si>
     <t>I have stayed at a couple of Candlewoods Suites before, so I understand this is a longer-term stay hotel which may have its downsides.  However, I could not stay the night here.  I ended up leaving about 30 minutes after checking in.  The hallways smelled horribly of smoke as soon as I got off the elevator.  Once in the room, the AC unit had a horrible smell.  I could hear the neighbors as if they were in my room.  I pulled down the sheets and saw some sort of a crumb.  The upkeep was "OK".  Floor corners were dirty.  Bathroom seemed fine.  Carpet was extremely warn.  Kitchen area needed updating/upkeep.  If I need to stay in that area, I will choose the Holiday Inn Express on I-35.  VERY NICE.More</t>
-  </si>
-  <si>
-    <t>allie181</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r171410710-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1240,9 +1126,6 @@
 Fi, ere is no swimming pool...I booked the deluxe suite. I was under the impression it had 2 beds however it turns out the 2nd bed was a pullout sofa. This was disappointing but apparently they don't have any rooms with 2 proper beds. However, the pullout was surprisingly comfy and everything else was so good that I was still able to rate this 5 stars. Our room had a full kitchen including stove, microwave, full size fridge with freezer section and bowls, cutlery etc. the bathroom was a good size and very clean. The room only gets cleaned if you sat &gt; 7 days but to be honest I prefer that otherwise I find myself tidying up in the morning for housekeeping or putting the do not disturb sign on my door. The hotel also offers a free laundry (you can buy soap etc for a small fee) and the room has an iron and ironing board. We didn't need to use these but for a longer stay this would have been great. Food is also within walking distance including Texas Roadhouse and a 24 hr Ihop. The TVs also worked well and had a decent number of channels. The trip to the Fort Worth Stockyards was less than 15 mins drive away. We had a rental car so this was a very convenient hotel. The hotel also had plenty of parking. I would definitely stay here again.Fi, ere is no swimming pool which was a pity as it was 40 degrees Celsius but the hotel next door had an outdoor pool which friends who were staying there invited us to use although we were too busy with other activities to do so.More</t>
   </si>
   <si>
-    <t>BigDaddy083</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r170569191-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1258,9 +1141,6 @@
     <t xml:space="preserve">The king size suites are very nice.  The AC is in the living room which reduces noise in the bed room.  The kitchen is functional and better than many I had in apartments.  Actually, this room was nicer than my first few apartments.  Very clean, well maintained, and walking distance to several restaurants.  The highways are close and under serious construction.  Rush hour can be very stressful.  </t>
   </si>
   <si>
-    <t>Robert W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r168123453-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1282,9 +1162,6 @@
     <t>Few things can make up for the amazing amount of construction going on in Ft Worth on the road system. The 820 loop is and amazing maze of ever changing  closed exits, alternate side roads and a plethora of other obstacles. But the hospitality and cordiality once at the property and returning to it after the magical mystery tour and off road experience of getting round Ft Worth makes it all worth ( Ft) it. Patty the night auditor particularly is outstanding and engaging. They call almost everyone by name and are most accommodating. The rooms are great and the upkeep ongoing. I highly recommend i t despite the road madness. Great value and pet friendly. Will stay there each time back for sure. See y'all there.More</t>
   </si>
   <si>
-    <t>Sarahrose G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r165988534-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1306,9 +1183,6 @@
     <t>My husband and I stayed here on Friday and Saturday of this past weekend and our stay was great! When we got to the room I was surprised at how clean it was. The bed was comfy and the hotel even left us popcorn in the microwave. There was a dishwasher and stovetop as well as a microwave and fridge/freezer in the room. Our room was on the third floor. The only things that were annoying was the lack of a pool and the annoying noise the elevator made (it was really loud). In addition the staff was pretty nice and there were a few restaurant's near by including a Texas Roadhouse within walking distance. The hotel is far from Dallas however it is easy on and easy off of the interstate. There are gas stations very close by and a Wal-Mart and Kroger Grocery store within a few miles on Beach Street. Overall I feel this place is worth the price and worth the stay.More</t>
   </si>
   <si>
-    <t>RJ56Mc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r165944780-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1342,9 +1216,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>billybirdsmom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r144692701-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1366,9 +1237,6 @@
     <t>We reserved 7 rooms for a family funeral the middle of Oct 2012.  The staff, especially Pattie at the front desk, was wonderful in putting us all together in the same wing and on the same floor so that we could visit.  The rooms were clean and well appointed.  When there was a problem with smoking guests on our floor, it was taken care of immediately and we were furnished with an ionizer for the 'smoke allergic' member of our family. The staff was extremely helpful in furnishing us directions to our various locations in order to avoid the construction going on in that area.  When I needed a recommendation for lunch for 17 people, not only did I get a great recommendation, I was also handed a reservation already made for us by Pattie. She was extremely helpful, wonderful to deal with and sensitive to the nature of our stay.  We can't say enough good things about this hotel and will stay there again when we go back to visit family.More</t>
   </si>
   <si>
-    <t>AuntSandysPetGroom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r140445620-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1408,9 +1276,6 @@
     <t>We stayed here for an overnight visit to the Kimbell.  Nice staff, wonderful room...great bed.  Great small store downstairs with food and necessities at a very reasonable price.  I have stayed in other hotels where the store items are not priced and are atrociously overpriced, but this is NOT the case here.  I noticed there was a free library, and movies which you could borrow to watch.  I liked this hotel.I know it's not the hotel's fault, but the traffic was AWFUL.  Construction, re-routing...maybe that's a characteristic of DFW, like it is in Tulsa, but I was INSANE by the time I arrived, and the great room, soft bed and clean bathroom were just what I needed to unwind.Candlewood Suites  Fossil Creek  = 5 STARS, and we will stay there again.More</t>
   </si>
   <si>
-    <t>RanLove</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r132669317-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1426,9 +1291,6 @@
     <t>Exercise room and pantry, laundry were super. Staff was cordial and responsive. Large suites with kitchen and large desk area. Set up for extended stays.</t>
   </si>
   <si>
-    <t>laneelms</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r132128195-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1447,9 +1309,6 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>azkellyk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r118674077-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1469,9 +1328,6 @@
   </si>
   <si>
     <t>I got a great deal through priceline, but even at the regular rate it's a good value.  The staff was so nice, genuinely kind and helpful.  I got the best sleep I've ever had in a hotel.  The kitchen is fully equipped and they really thought of every detail to make it comfortable.  Parking and wifi are included in the price so they don't drown you in incidentals.  The room also had a tv with a dvd/vcr player and they had a lending library for movies.  I didn't use it so I don't know what the selection was like, but with hotels charging up to 16$ for pay per view movies you could go rent for a dollar these days I really appreciated it.  I have no plans to be back in Fort Worth but if I ever am I would stay here again without question.More</t>
-  </si>
-  <si>
-    <t>Reen3</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r94260175-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1503,9 +1359,6 @@
 If you are looking for a month long stay, at a reasonable...My husband and I stayed at the hotel for a month long business trip.  The staff was incredibly friendly, especially Patti! She is just such a pleasant, happy, helpful person! It is a very comfortable stay, with a desk, tv, dvd, comfortable bed, clean bathrooms, and a kitchenette with clean pots and pans and clean dishes for use.  It is a nice home away from home, and if you stay for an extended period, they come to your room once a week to clean.  There is FREE Laundry! Never have I seen that before! and a huge dvd library at the front desk that allows you to check out as often as you wish.... Again - free of charge.  There is a workout room, connected to the laundry and snack area that has enough equipment to get your workout in.  They kindly placed us up on the third floor and looking out the window in the morning, we can see the city of Fort Worth in the distance a beautiful horses in the field right across the parking lot.  Housekeeping and Service staff are constantly working cleaning, updating and making sure washer/dryers and the snack vending area with frozen meals, soda, water, ice cream, etc are working.  You can easily walk to a few restaurants and an easy drive (5min) to more food, grocery stores, Walgreens/CVS and Walmart.If you are looking for a month long stay, at a reasonable rate, and the basic amenities, this hotel was absolutely fitting.  And we really enjoyed the staff and the easy location to get onto the expressways and the basic stores around.  I highly recommend this hotel!More</t>
   </si>
   <si>
-    <t>TomatoBandit</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r92033237-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1518,9 +1371,6 @@
     <t>We stayed here for 4 days, nice hotel. It's a little bit old, the room smells a little, however we pretty much used the hotel to sleep after being out all day.No room service, so if you need towels you will need to go downstairs.The staffs were really friendly.Laundry is available. Can purchase detergent and softener for $1 each. There are candies and sodas available, prices are def reasonable.  Gym is very basic and do-able. Free internet in the room, but it's not wi-fi. Overall good value.</t>
   </si>
   <si>
-    <t>Don P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r86072584-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1539,9 +1389,6 @@
     <t>October 2010</t>
   </si>
   <si>
-    <t>rletrip</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r61892908-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1560,9 +1407,6 @@
     <t>April 2010</t>
   </si>
   <si>
-    <t>Asakim</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r59830197-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1581,9 +1425,6 @@
     <t>The Candlewood Suites - Fort Worth/Fossil Creek are a good value for a short stay. Note: this is not a full service motel with breakfast buffet or daily room service. Our room had a kitchen and we did not miss the maid or restraunt.The location was good for our trip. The staff were friendly and helpful. The beds are listed as queen, but I think smaller (I did not take a tape measure). The room was clean, but evidently the room had an odor problem. An ionic air freshener was running when we opened the door. After some time, the air irritated our throats and eyes. We turned the machine off, opened the window and the air was OK. When we checked out, the manager said the machine should not have been running while we were in the room.More</t>
   </si>
   <si>
-    <t>AmitDdn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r44452877-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1602,9 +1443,6 @@
     <t>April 2006</t>
   </si>
   <si>
-    <t>Irisesareblue</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r17752383-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1626,9 +1464,6 @@
     <t>Stayed here for July 5th through 7th through Priceline.  The hotel had good access to I-820 in North Fort Worth and was close driving distance to Motorola and other corporate offices in Fossil Creek and fast-food restaurants and some strip-mall stores along North Beach Street.     Staff  was very polite.  The Candlewood Cupboard had good selection of pre-packaged products which we used to prepare breakfast in our suite kitchen.  The kitchen had everything we needed and had a toaster, pots and pans, and enough cutlery/dishes for two persons.  The queen bed was comfortable and the bathroom large enough for 2 to get ready in the morning.   What surprised me was the leather (like?) recliner beside the bed - very comfortable and a great spot from which to watch TV.  The hotel front desk had DVDs to borrow, which was great.  The only thing the hotel lacks is a pool or hot tub, but it was no great problem as we never get to use either of these when we're on business anyway - so it's a moot point for this trip, however, for a family trip, it might have been a factor.No problems with our stay - very clean room and facilities.  Would stay here again.  Other reviews had complained about the parked semis in the surrounding areas but they didn't restrict driving on the streets in the area.More</t>
   </si>
   <si>
-    <t>Luv2BinPCB</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r10991909-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1647,9 +1482,6 @@
     <t>We had the pleasure to visit the Ft Worth area for the first time in November.  My husband won a trip to the nascar race and we were booked at Candlewood Suites. The first thing I did was go on line and check out the place.  The reviews were old and didn't sound good.  But we thought it was free and for only two nights we could make it.  The travel agent called and told us my husband had won three nights, (ok, " this had better not be a dump"). To our surprise it was very nice, the room was clean and had everything we needed.  Everyone we spoke to was friendly and helpful.  The pantry downstairs was great, you could get snacks and didn't have to leave the building.  There was several nice places to eat at within walking distance.  If we get the chance to come back to the area we would book a room at the Candlewood.More</t>
   </si>
   <si>
-    <t>lethab2000</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r10599374-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1668,9 +1500,6 @@
     <t>November 2007</t>
   </si>
   <si>
-    <t>kaisersosa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r5478755-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1689,9 +1518,6 @@
     <t>We just came back from a three night stay at Candlewood Suites at Fossil Creek in Forth Worth, Texas.  This is an extended stay hotel, but we do not suggest that anyone stay for an extended visit!  The rooms are in need of renovation.  Our bathroom sink was not operational due to lack of water presure and the shower head leaked at its connection in the wall producing a daily flood.  We requested that they be fixed at the front desk for three days and then just gave up!  Also, since this is an extended stay there is literally no service.  If your idea of a get away is emptying your garbage can at the end of the hall, this place is for you!More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r5440779-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1705,9 +1531,6 @@
   </si>
   <si>
     <t>We stayed at the Candlewood for almost a week  and upon arrival we reported a problem with the shower and a hole in the shower wall and nothing was done about it.  We also had to hunt the maids down for clean towels and had to empty our trash baskets each day. For the price we paid, we could have stayed at a motel with daily maid service. We travel a lot and we will not be staying here again.</t>
-  </si>
-  <si>
-    <t>grotshops</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109228-r2502505-Candlewood_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -2227,47 +2050,43 @@
       <c r="A2" t="n">
         <v>34013</v>
       </c>
-      <c r="B2" t="n">
-        <v>123928</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2281,54 +2100,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34013</v>
       </c>
-      <c r="B3" t="n">
-        <v>123929</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2348,54 +2163,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34013</v>
       </c>
-      <c r="B4" t="n">
-        <v>123930</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2407,60 +2218,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34013</v>
       </c>
-      <c r="B5" t="n">
-        <v>123931</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
         <v>76</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2474,54 +2281,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34013</v>
       </c>
-      <c r="B6" t="n">
-        <v>3897</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2535,54 +2338,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34013</v>
       </c>
-      <c r="B7" t="n">
-        <v>123932</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2598,60 +2397,56 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34013</v>
       </c>
-      <c r="B8" t="n">
-        <v>4517</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2669,60 +2464,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34013</v>
       </c>
-      <c r="B9" t="n">
-        <v>123933</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2734,60 +2525,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>34013</v>
       </c>
-      <c r="B10" t="n">
-        <v>12010</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2805,54 +2592,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>34013</v>
       </c>
-      <c r="B11" t="n">
-        <v>123934</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2870,60 +2653,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>34013</v>
       </c>
-      <c r="B12" t="n">
-        <v>123935</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2941,60 +2720,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34013</v>
       </c>
-      <c r="B13" t="n">
-        <v>123936</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3014,54 +2789,50 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>34013</v>
       </c>
-      <c r="B14" t="n">
-        <v>123937</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3075,54 +2846,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34013</v>
       </c>
-      <c r="B15" t="n">
-        <v>103890</v>
-      </c>
-      <c r="C15" t="s">
-        <v>162</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3142,54 +2909,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>34013</v>
       </c>
-      <c r="B16" t="n">
-        <v>123938</v>
-      </c>
-      <c r="C16" t="s">
-        <v>170</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3209,54 +2972,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>34013</v>
       </c>
-      <c r="B17" t="n">
-        <v>54091</v>
-      </c>
-      <c r="C17" t="s">
-        <v>177</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3276,54 +3035,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>34013</v>
       </c>
-      <c r="B18" t="n">
-        <v>21623</v>
-      </c>
-      <c r="C18" t="s">
-        <v>184</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3335,60 +3090,56 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>34013</v>
       </c>
-      <c r="B19" t="n">
-        <v>5025</v>
-      </c>
-      <c r="C19" t="s">
-        <v>194</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3402,54 +3153,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>34013</v>
       </c>
-      <c r="B20" t="n">
-        <v>123939</v>
-      </c>
-      <c r="C20" t="s">
-        <v>202</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3463,54 +3210,50 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>34013</v>
       </c>
-      <c r="B21" t="n">
-        <v>82109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>208</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3530,54 +3273,50 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>34013</v>
       </c>
-      <c r="B22" t="n">
-        <v>123940</v>
-      </c>
-      <c r="C22" t="s">
-        <v>216</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3597,54 +3336,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>34013</v>
       </c>
-      <c r="B23" t="n">
-        <v>123941</v>
-      </c>
-      <c r="C23" t="s">
-        <v>224</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3664,54 +3399,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>34013</v>
       </c>
-      <c r="B24" t="n">
-        <v>123942</v>
-      </c>
-      <c r="C24" t="s">
-        <v>232</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3725,54 +3456,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>34013</v>
       </c>
-      <c r="B25" t="n">
-        <v>123943</v>
-      </c>
-      <c r="C25" t="s">
-        <v>239</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="O25" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3790,54 +3517,50 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>34013</v>
       </c>
-      <c r="B26" t="n">
-        <v>123944</v>
-      </c>
-      <c r="C26" t="s">
-        <v>246</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3849,60 +3572,56 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>34013</v>
       </c>
-      <c r="B27" t="n">
-        <v>123945</v>
-      </c>
-      <c r="C27" t="s">
-        <v>255</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3918,60 +3637,56 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="X27" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="Y27" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>34013</v>
       </c>
-      <c r="B28" t="n">
-        <v>53871</v>
-      </c>
-      <c r="C28" t="s">
-        <v>265</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3991,54 +3706,50 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>34013</v>
       </c>
-      <c r="B29" t="n">
-        <v>123946</v>
-      </c>
-      <c r="C29" t="s">
-        <v>272</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4050,60 +3761,56 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="X29" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>34013</v>
       </c>
-      <c r="B30" t="n">
-        <v>123947</v>
-      </c>
-      <c r="C30" t="s">
-        <v>281</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4121,54 +3828,50 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>34013</v>
       </c>
-      <c r="B31" t="n">
-        <v>123948</v>
-      </c>
-      <c r="C31" t="s">
-        <v>288</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4180,49 +3883,57 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="X31" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="Y31" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>34013</v>
       </c>
-      <c r="B32" t="n">
-        <v>123949</v>
-      </c>
-      <c r="C32" t="s">
-        <v>298</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>300</v>
-      </c>
-      <c r="J32" t="s"/>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
-      <c r="M32" t="s"/>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>269</v>
+      </c>
+      <c r="J32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>264</v>
+      </c>
+      <c r="O32" t="s">
+        <v>108</v>
+      </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
@@ -4232,52 +3943,57 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
+      <c r="W32" t="s">
+        <v>273</v>
+      </c>
+      <c r="X32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>34013</v>
       </c>
-      <c r="B33" t="n">
-        <v>28668</v>
-      </c>
-      <c r="C33" t="s">
-        <v>301</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4297,54 +4013,50 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>34013</v>
       </c>
-      <c r="B34" t="n">
-        <v>123950</v>
-      </c>
-      <c r="C34" t="s">
-        <v>308</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4364,54 +4076,50 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>34013</v>
       </c>
-      <c r="B35" t="n">
-        <v>123951</v>
-      </c>
-      <c r="C35" t="s">
-        <v>315</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="J35" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4433,60 +4141,56 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="X35" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Y35" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>34013</v>
       </c>
-      <c r="B36" t="n">
-        <v>123952</v>
-      </c>
-      <c r="C36" t="s">
-        <v>324</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="J36" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="K36" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4508,54 +4212,50 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>34013</v>
       </c>
-      <c r="B37" t="n">
-        <v>7112</v>
-      </c>
-      <c r="C37" t="s">
-        <v>330</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="J37" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="K37" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="L37" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4577,60 +4277,56 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="X37" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>34013</v>
       </c>
-      <c r="B38" t="n">
-        <v>123953</v>
-      </c>
-      <c r="C38" t="s">
-        <v>340</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="J38" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4644,54 +4340,50 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>34013</v>
       </c>
-      <c r="B39" t="n">
-        <v>123954</v>
-      </c>
-      <c r="C39" t="s">
-        <v>346</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4715,54 +4407,50 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>34013</v>
       </c>
-      <c r="B40" t="n">
-        <v>123955</v>
-      </c>
-      <c r="C40" t="s">
-        <v>353</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="J40" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4786,54 +4474,50 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>34013</v>
       </c>
-      <c r="B41" t="n">
-        <v>123956</v>
-      </c>
-      <c r="C41" t="s">
-        <v>360</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4857,54 +4541,50 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>34013</v>
       </c>
-      <c r="B42" t="n">
-        <v>123957</v>
-      </c>
-      <c r="C42" t="s">
-        <v>367</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="J42" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="K42" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4928,54 +4608,50 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>34013</v>
       </c>
-      <c r="B43" t="n">
-        <v>123958</v>
-      </c>
-      <c r="C43" t="s">
-        <v>375</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="J43" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="K43" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4999,54 +4675,50 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>34013</v>
       </c>
-      <c r="B44" t="n">
-        <v>8257</v>
-      </c>
-      <c r="C44" t="s">
-        <v>383</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="J44" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5068,60 +4740,56 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="X44" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="Y44" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>34013</v>
       </c>
-      <c r="B45" t="n">
-        <v>123959</v>
-      </c>
-      <c r="C45" t="s">
-        <v>392</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="J45" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="K45" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5145,45 +4813,41 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>34013</v>
       </c>
-      <c r="B46" t="n">
-        <v>123960</v>
-      </c>
-      <c r="C46" t="s">
-        <v>400</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="J46" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="K46" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
@@ -5212,54 +4876,50 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>34013</v>
       </c>
-      <c r="B47" t="n">
-        <v>325</v>
-      </c>
-      <c r="C47" t="s">
-        <v>406</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="J47" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="K47" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5283,54 +4943,50 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>34013</v>
       </c>
-      <c r="B48" t="n">
-        <v>123961</v>
-      </c>
-      <c r="C48" t="s">
-        <v>414</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="J48" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="K48" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5354,54 +5010,50 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>34013</v>
       </c>
-      <c r="B49" t="n">
-        <v>123962</v>
-      </c>
-      <c r="C49" t="s">
-        <v>422</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="K49" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5425,7 +5077,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50">
@@ -5438,37 +5090,37 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="J50" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="K50" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="O50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5492,54 +5144,50 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>34013</v>
       </c>
-      <c r="B51" t="n">
-        <v>123963</v>
-      </c>
-      <c r="C51" t="s">
-        <v>434</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="J51" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="K51" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5563,54 +5211,50 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>34013</v>
       </c>
-      <c r="B52" t="n">
-        <v>123964</v>
-      </c>
-      <c r="C52" t="s">
-        <v>442</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="J52" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="K52" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="O52" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5634,54 +5278,50 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>34013</v>
       </c>
-      <c r="B53" t="n">
-        <v>123954</v>
-      </c>
-      <c r="C53" t="s">
-        <v>353</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="J53" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="K53" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="O53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5703,45 +5343,41 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>34013</v>
       </c>
-      <c r="B54" t="n">
-        <v>123965</v>
-      </c>
-      <c r="C54" t="s">
-        <v>456</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="J54" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="K54" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5770,54 +5406,50 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>34013</v>
       </c>
-      <c r="B55" t="n">
-        <v>123966</v>
-      </c>
-      <c r="C55" t="s">
-        <v>462</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="J55" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="K55" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="L55" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="O55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5831,54 +5463,50 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>34013</v>
       </c>
-      <c r="B56" t="n">
-        <v>123967</v>
-      </c>
-      <c r="C56" t="s">
-        <v>469</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="J56" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="K56" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="O56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5902,54 +5530,50 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>34013</v>
       </c>
-      <c r="B57" t="n">
-        <v>123968</v>
-      </c>
-      <c r="C57" t="s">
-        <v>477</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
       <c r="J57" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="K57" t="s">
-        <v>481</v>
+        <v>433</v>
       </c>
       <c r="L57" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="O57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5973,54 +5597,50 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>34013</v>
       </c>
-      <c r="B58" t="n">
-        <v>123969</v>
-      </c>
-      <c r="C58" t="s">
-        <v>485</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="J58" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="K58" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="L58" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="O58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6044,54 +5664,50 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>34013</v>
       </c>
-      <c r="B59" t="n">
-        <v>11788</v>
-      </c>
-      <c r="C59" t="s">
-        <v>490</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="J59" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="O59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6115,54 +5731,50 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>34013</v>
       </c>
-      <c r="B60" t="n">
-        <v>123970</v>
-      </c>
-      <c r="C60" t="s">
-        <v>497</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>499</v>
+        <v>448</v>
       </c>
       <c r="J60" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="K60" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="L60" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6186,54 +5798,50 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>34013</v>
       </c>
-      <c r="B61" t="n">
-        <v>123971</v>
-      </c>
-      <c r="C61" t="s">
-        <v>504</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="J61" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="K61" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="L61" t="s">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
       <c r="O61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6257,54 +5865,50 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>510</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>34013</v>
       </c>
-      <c r="B62" t="n">
-        <v>123972</v>
-      </c>
-      <c r="C62" t="s">
-        <v>511</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="J62" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="K62" t="s">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="L62" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6318,54 +5922,50 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>34013</v>
       </c>
-      <c r="B63" t="n">
-        <v>123973</v>
-      </c>
-      <c r="C63" t="s">
-        <v>518</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>519</v>
+        <v>465</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>520</v>
+        <v>466</v>
       </c>
       <c r="J63" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="K63" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
       <c r="L63" t="s">
-        <v>523</v>
+        <v>469</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
       <c r="O63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6389,45 +5989,41 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>34013</v>
       </c>
-      <c r="B64" t="n">
-        <v>123974</v>
-      </c>
-      <c r="C64" t="s">
-        <v>526</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>527</v>
+        <v>472</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>528</v>
+        <v>473</v>
       </c>
       <c r="J64" t="s">
-        <v>529</v>
+        <v>474</v>
       </c>
       <c r="K64" t="s">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="L64" t="s">
-        <v>531</v>
+        <v>476</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6456,54 +6052,50 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>532</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>34013</v>
       </c>
-      <c r="B65" t="n">
-        <v>123975</v>
-      </c>
-      <c r="C65" t="s">
-        <v>533</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
       <c r="J65" t="s">
-        <v>536</v>
+        <v>480</v>
       </c>
       <c r="K65" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="L65" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="O65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6527,45 +6119,41 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>34013</v>
       </c>
-      <c r="B66" t="n">
-        <v>123976</v>
-      </c>
-      <c r="C66" t="s">
-        <v>540</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>541</v>
+        <v>484</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
       <c r="J66" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
       <c r="K66" t="s">
-        <v>544</v>
+        <v>487</v>
       </c>
       <c r="L66" t="s">
-        <v>545</v>
+        <v>488</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
@@ -6584,45 +6172,41 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>34013</v>
       </c>
-      <c r="B67" t="n">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>547</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>548</v>
+        <v>490</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>549</v>
+        <v>491</v>
       </c>
       <c r="J67" t="s">
-        <v>550</v>
+        <v>492</v>
       </c>
       <c r="K67" t="s">
-        <v>551</v>
+        <v>493</v>
       </c>
       <c r="L67" t="s">
-        <v>552</v>
+        <v>494</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
@@ -6649,45 +6233,41 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>552</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>34013</v>
       </c>
-      <c r="B68" t="n">
-        <v>123977</v>
-      </c>
-      <c r="C68" t="s">
-        <v>553</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>554</v>
+        <v>495</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="J68" t="s">
-        <v>556</v>
+        <v>497</v>
       </c>
       <c r="K68" t="s">
-        <v>557</v>
+        <v>498</v>
       </c>
       <c r="L68" t="s">
-        <v>558</v>
+        <v>499</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
@@ -6710,7 +6290,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>558</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
